--- a/src/vlinder/data/Refugee/xlsx/Refugee.xlsx
+++ b/src/vlinder/data/Refugee/xlsx/Refugee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttami001/Documents/forked_tbrs_opensource/trbs/src/vlinder/data/refugee/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aweijden002\Documents\tRBS anne\Fork Ruen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1FCBF3-1EAE-0543-B25E-9A26D4D02AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BECE9F11-9E77-4022-ADDB-7A7F3A737421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="-21280" windowWidth="31660" windowHeight="15880" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,10 @@
     <sheet name="scenario_weights" sheetId="9" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">dependencies!$A$1:$H$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">dependencies!$A$1:$H$130</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">fixed_inputs!$A$1:$B$46</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="300">
   <si>
     <t>configuration</t>
   </si>
@@ -112,24 +112,9 @@
     <t>operator</t>
   </si>
   <si>
-    <t>maximum_effect</t>
-  </si>
-  <si>
-    <t>accessibility</t>
-  </si>
-  <si>
-    <t>probability_of_success</t>
-  </si>
-  <si>
-    <t>saturation_point</t>
-  </si>
-  <si>
     <t>weight</t>
   </si>
   <si>
-    <t>use_theme_weights</t>
-  </si>
-  <si>
     <t>Quality of life Ukrainians</t>
   </si>
   <si>
@@ -553,9 +538,6 @@
     <t>Base case</t>
   </si>
   <si>
-    <t>squeezed *</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -773,13 +755,208 @@
   </si>
   <si>
     <t>EN</t>
+  </si>
+  <si>
+    <t>TECU_me</t>
+  </si>
+  <si>
+    <t>TECU_acc</t>
+  </si>
+  <si>
+    <t>TECU_pos</t>
+  </si>
+  <si>
+    <t>TECU_sp</t>
+  </si>
+  <si>
+    <t>TECU_1</t>
+  </si>
+  <si>
+    <t>TECU_2</t>
+  </si>
+  <si>
+    <t>TECU_3</t>
+  </si>
+  <si>
+    <t>TECU_4</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>LAUS_me</t>
+  </si>
+  <si>
+    <t>LAUS_acc</t>
+  </si>
+  <si>
+    <t>LAUS_pos</t>
+  </si>
+  <si>
+    <t>LAUS_sp</t>
+  </si>
+  <si>
+    <t>LAUS_1</t>
+  </si>
+  <si>
+    <t>LAUS_2</t>
+  </si>
+  <si>
+    <t>LAUS_3</t>
+  </si>
+  <si>
+    <t>LAUS_4</t>
+  </si>
+  <si>
+    <t>LAUI_me</t>
+  </si>
+  <si>
+    <t>LAUI_acc</t>
+  </si>
+  <si>
+    <t>LAUI_pos</t>
+  </si>
+  <si>
+    <t>LAUI_sp</t>
+  </si>
+  <si>
+    <t>LAUI_1</t>
+  </si>
+  <si>
+    <t>LAUI_2</t>
+  </si>
+  <si>
+    <t>LAUI_3</t>
+  </si>
+  <si>
+    <t>LAUI_4</t>
+  </si>
+  <si>
+    <t>URUE_me</t>
+  </si>
+  <si>
+    <t>URUE_acc</t>
+  </si>
+  <si>
+    <t>URUE_pos</t>
+  </si>
+  <si>
+    <t>URUE_sp</t>
+  </si>
+  <si>
+    <t>URUE_1</t>
+  </si>
+  <si>
+    <t>URUE_2</t>
+  </si>
+  <si>
+    <t>URUE_3</t>
+  </si>
+  <si>
+    <t>URUE_4</t>
+  </si>
+  <si>
+    <t>SCUS_me</t>
+  </si>
+  <si>
+    <t>SCUS_acc</t>
+  </si>
+  <si>
+    <t>SCUS_pos</t>
+  </si>
+  <si>
+    <t>SCUS_sp</t>
+  </si>
+  <si>
+    <t>SCUS_1</t>
+  </si>
+  <si>
+    <t>SCUS_2</t>
+  </si>
+  <si>
+    <t>SCUS_3</t>
+  </si>
+  <si>
+    <t>SCUS_4</t>
+  </si>
+  <si>
+    <t>SCUT_me</t>
+  </si>
+  <si>
+    <t>SCUT_acc</t>
+  </si>
+  <si>
+    <t>SCUT_pos</t>
+  </si>
+  <si>
+    <t>SCUT_sp</t>
+  </si>
+  <si>
+    <t>SCUT_1</t>
+  </si>
+  <si>
+    <t>SCUT_2</t>
+  </si>
+  <si>
+    <t>SCUT_3</t>
+  </si>
+  <si>
+    <t>SCUT_4</t>
+  </si>
+  <si>
+    <t>HUSA_me</t>
+  </si>
+  <si>
+    <t>HUSA_acc</t>
+  </si>
+  <si>
+    <t>HUSA_pos</t>
+  </si>
+  <si>
+    <t>HUSA_sp</t>
+  </si>
+  <si>
+    <t>HUSA_1</t>
+  </si>
+  <si>
+    <t>HUSA_2</t>
+  </si>
+  <si>
+    <t>HUSA_3</t>
+  </si>
+  <si>
+    <t>HUSA_4</t>
+  </si>
+  <si>
+    <t>SPUAT_me</t>
+  </si>
+  <si>
+    <t>SPUAT_acc</t>
+  </si>
+  <si>
+    <t>SPUAT_pos</t>
+  </si>
+  <si>
+    <t>SPUAT_sp</t>
+  </si>
+  <si>
+    <t>SPUAT_1</t>
+  </si>
+  <si>
+    <t>SPUAT_2</t>
+  </si>
+  <si>
+    <t>SPUAT_3</t>
+  </si>
+  <si>
+    <t>SPUAT_4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -809,6 +986,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -869,7 +1059,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -887,6 +1077,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1213,18 +1404,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323C0127-B98F-8F4A-8B9E-DB2076867E31}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1232,20 +1423,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>240</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -1261,70 +1444,70 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1343,35 +1526,35 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1390,255 +1573,255 @@
       <selection sqref="A1:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="163.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="6"/>
+    <col min="3" max="16384" width="10.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="7" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B11" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="B12" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B13" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B11" s="7" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B13" s="7" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="B17" s="8" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="B31" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -1654,30 +1837,30 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="6"/>
+    <col min="3" max="16384" width="10.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="204" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="189" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
     </row>
   </sheetData>
@@ -1693,13 +1876,13 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1728,12 +1911,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1754,12 +1937,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1780,12 +1963,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1806,12 +1989,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1832,12 +2015,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1858,12 +2041,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1884,12 +2067,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1923,16 +2106,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1943,276 +2126,276 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>3234502</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>3234502</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>3234502</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>3234502</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>41</v>
-      </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>3881402.4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>2587601.6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>1293800.8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>1293800.8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C19">
         <v>1293800.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C20">
         <v>1293800.8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C21">
         <v>1293800.8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>2587601.6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>3881402.4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2231,13 +2414,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -2248,199 +2431,199 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C2">
         <v>2587601.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>2587601.6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>5175203.3470000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C5">
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>36972</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>21384</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>27084</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>26796</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C12">
         <v>43512</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C13">
         <v>25332</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C14">
         <v>34872</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C15">
         <v>30492</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C16">
         <v>50052</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C17">
         <v>34332</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C18">
         <v>40776</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>34080</v>
@@ -2453,18 +2636,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED761DDB-51CF-394F-9D46-C056F7FA6C46}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2472,364 +2655,620 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B2">
         <v>0.81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>0.81</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B4">
         <v>0.37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3">
         <v>0.26600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B7" s="3">
         <v>0.26600000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B8" s="3">
         <v>0.26600000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B10">
         <v>0.15490000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B11">
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B12">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B13" s="3">
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3">
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B15">
         <v>0.26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B16">
         <v>0.26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B17">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B18">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B19">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B20">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B21">
         <v>0.82</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B22">
         <v>0.82</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B23">
         <v>9.1200000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B24">
         <v>0.7</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B25">
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B26">
         <v>0.158</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B27">
         <v>0.26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B28">
         <v>0.36299999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B29">
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B30">
         <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B31">
         <v>0.46</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B32">
         <v>0.46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B33">
         <v>0.46</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B35">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B36">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B37">
         <v>20700</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B38">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B39">
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B40">
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B41">
         <v>1532</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B42">
         <v>24000</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B43">
         <v>3105</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B44">
         <v>3120</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B45">
         <v>3120</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B46">
         <v>14352</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>235</v>
+      </c>
+      <c r="B47">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>236</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>237</v>
+      </c>
+      <c r="B49">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>238</v>
+      </c>
+      <c r="B50">
+        <v>13774010.720000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>244</v>
+      </c>
+      <c r="B51">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>245</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>246</v>
+      </c>
+      <c r="B53">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>247</v>
+      </c>
+      <c r="B54">
+        <v>1630189.054</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>252</v>
+      </c>
+      <c r="B55">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>253</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>254</v>
+      </c>
+      <c r="B57">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>255</v>
+      </c>
+      <c r="B58">
+        <v>7946938.7560000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>260</v>
+      </c>
+      <c r="B59">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>261</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>262</v>
+      </c>
+      <c r="B61">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>263</v>
+      </c>
+      <c r="B62">
+        <v>8150945.2719999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>268</v>
+      </c>
+      <c r="B63">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>269</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>270</v>
+      </c>
+      <c r="B65">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>271</v>
+      </c>
+      <c r="B66">
+        <v>1630189.054</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>276</v>
+      </c>
+      <c r="B67">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>277</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>278</v>
+      </c>
+      <c r="B69">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>279</v>
+      </c>
+      <c r="B70">
+        <v>15216753.91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>284</v>
+      </c>
+      <c r="B71">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>285</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>286</v>
+      </c>
+      <c r="B73">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>287</v>
+      </c>
+      <c r="B74">
+        <v>1630189.054</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>292</v>
+      </c>
+      <c r="B75">
+        <v>0.53700000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>293</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>294</v>
+      </c>
+      <c r="B77">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>295</v>
+      </c>
+      <c r="B78">
+        <v>15216753.91</v>
       </c>
     </row>
   </sheetData>
@@ -2843,24 +3282,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45498073-CC56-2D41-B5D6-3D03F1233978}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A72" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:N39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="46.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -2873,1451 +3312,1815 @@
       <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>247</v>
+      </c>
+      <c r="D19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>249</v>
+      </c>
+      <c r="B20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>251</v>
+      </c>
+      <c r="B22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>257</v>
+      </c>
+      <c r="B25" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>258</v>
+      </c>
+      <c r="B26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" t="s">
+        <v>253</v>
+      </c>
+      <c r="D26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>259</v>
+      </c>
+      <c r="B27" t="s">
+        <v>258</v>
+      </c>
+      <c r="C27" t="s">
+        <v>254</v>
+      </c>
+      <c r="D27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" t="s">
+        <v>259</v>
+      </c>
+      <c r="C28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>170</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>264</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>263</v>
+      </c>
+      <c r="D32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>265</v>
+      </c>
+      <c r="B33" t="s">
+        <v>264</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>266</v>
+      </c>
+      <c r="B34" t="s">
+        <v>265</v>
+      </c>
+      <c r="C34" t="s">
+        <v>261</v>
+      </c>
+      <c r="D34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>267</v>
+      </c>
+      <c r="B35" t="s">
+        <v>266</v>
+      </c>
+      <c r="C35" t="s">
+        <v>262</v>
+      </c>
+      <c r="D35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" t="s">
+        <v>267</v>
+      </c>
+      <c r="C36" t="s">
+        <v>260</v>
+      </c>
+      <c r="D36" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>104</v>
       </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2">
-        <v>0.47</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.71</v>
-      </c>
-      <c r="H2">
-        <v>13774010.720000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B43" t="s">
         <v>98</v>
       </c>
-      <c r="B8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" t="s">
         <v>99</v>
       </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15">
-        <v>0.42</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.7</v>
-      </c>
-      <c r="H15">
-        <v>1630189.054</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16">
-        <v>0.65</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.7</v>
-      </c>
-      <c r="H16">
-        <v>7946938.7560000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="C44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" t="s">
         <v>103</v>
       </c>
-      <c r="B17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>174</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>176</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" t="s">
         <v>105</v>
       </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20">
-        <v>0.68</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.6</v>
-      </c>
-      <c r="H20">
-        <v>8150945.2719999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>106</v>
       </c>
-      <c r="B22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>111</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>116</v>
-      </c>
-      <c r="B38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>127</v>
-      </c>
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>127</v>
-      </c>
-      <c r="B41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>133</v>
-      </c>
-      <c r="B43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D43" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>153</v>
-      </c>
-      <c r="B44" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" t="s">
-        <v>118</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>29</v>
-      </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s">
         <v>90</v>
       </c>
       <c r="D47" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>128</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" t="s">
+        <v>84</v>
+      </c>
+      <c r="D61" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" t="s">
+        <v>115</v>
+      </c>
+      <c r="C66" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>117</v>
+      </c>
+      <c r="B68" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>119</v>
+      </c>
+      <c r="B70" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" t="s">
+        <v>121</v>
+      </c>
+      <c r="C74" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" t="s">
+        <v>48</v>
+      </c>
+      <c r="D77" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" t="s">
+        <v>271</v>
+      </c>
+      <c r="D78" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C80" t="s">
+        <v>269</v>
+      </c>
+      <c r="D80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C81" t="s">
+        <v>270</v>
+      </c>
+      <c r="D81" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>124</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="C82" t="s">
+        <v>268</v>
+      </c>
+      <c r="D82" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B83" t="s">
+        <v>39</v>
+      </c>
+      <c r="C83" t="s">
+        <v>279</v>
+      </c>
+      <c r="D83" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="C85" t="s">
+        <v>277</v>
+      </c>
+      <c r="D85" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C86" t="s">
+        <v>278</v>
+      </c>
+      <c r="D86" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>125</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C87" t="s">
+        <v>276</v>
+      </c>
+      <c r="D87" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>126</v>
+      </c>
+      <c r="B88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88" t="s">
+        <v>54</v>
+      </c>
+      <c r="D88" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>127</v>
+      </c>
+      <c r="B89" t="s">
+        <v>124</v>
+      </c>
+      <c r="C89" t="s">
+        <v>125</v>
+      </c>
+      <c r="D89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>127</v>
+      </c>
+      <c r="B90" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>130</v>
+      </c>
+      <c r="B91" t="s">
+        <v>127</v>
+      </c>
+      <c r="C91" t="s">
+        <v>69</v>
+      </c>
+      <c r="D91" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>130</v>
+      </c>
+      <c r="B92" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D92" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>130</v>
+      </c>
+      <c r="B93" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" t="s">
+        <v>58</v>
+      </c>
+      <c r="D93" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>131</v>
+      </c>
+      <c r="B94" t="s">
+        <v>130</v>
+      </c>
+      <c r="C94" t="s">
+        <v>59</v>
+      </c>
+      <c r="D94" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>146</v>
+      </c>
+      <c r="B95" t="s">
+        <v>130</v>
+      </c>
+      <c r="C95" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>153</v>
+      </c>
+      <c r="B96" t="s">
+        <v>130</v>
+      </c>
+      <c r="C96" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>132</v>
+      </c>
+      <c r="B97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" t="s">
+        <v>67</v>
+      </c>
+      <c r="D97" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>136</v>
+      </c>
+      <c r="B98" t="s">
+        <v>131</v>
+      </c>
+      <c r="C98" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>288</v>
+      </c>
+      <c r="B99" t="s">
+        <v>38</v>
+      </c>
+      <c r="C99" t="s">
+        <v>287</v>
+      </c>
+      <c r="D99" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>289</v>
+      </c>
+      <c r="B100" t="s">
+        <v>288</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>290</v>
+      </c>
+      <c r="B101" t="s">
+        <v>289</v>
+      </c>
+      <c r="C101" t="s">
+        <v>285</v>
+      </c>
+      <c r="D101" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>291</v>
+      </c>
+      <c r="B102" t="s">
+        <v>290</v>
+      </c>
+      <c r="C102" t="s">
+        <v>286</v>
+      </c>
+      <c r="D102" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>134</v>
+      </c>
+      <c r="B103" t="s">
+        <v>291</v>
+      </c>
+      <c r="C103" t="s">
+        <v>284</v>
+      </c>
+      <c r="D103" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>296</v>
+      </c>
+      <c r="B104" t="s">
+        <v>39</v>
+      </c>
+      <c r="C104" t="s">
+        <v>295</v>
+      </c>
+      <c r="D104" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>297</v>
+      </c>
+      <c r="B105" t="s">
+        <v>296</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>298</v>
+      </c>
+      <c r="B106" t="s">
+        <v>297</v>
+      </c>
+      <c r="C106" t="s">
+        <v>293</v>
+      </c>
+      <c r="D106" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>299</v>
+      </c>
+      <c r="B107" t="s">
+        <v>298</v>
+      </c>
+      <c r="C107" t="s">
+        <v>294</v>
+      </c>
+      <c r="D107" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>137</v>
+      </c>
+      <c r="B108" t="s">
+        <v>299</v>
+      </c>
+      <c r="C108" t="s">
+        <v>292</v>
+      </c>
+      <c r="D108" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>135</v>
+      </c>
+      <c r="B109" t="s">
+        <v>129</v>
+      </c>
+      <c r="C109" t="s">
+        <v>55</v>
+      </c>
+      <c r="D109" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>144</v>
+      </c>
+      <c r="B110" t="s">
+        <v>128</v>
+      </c>
+      <c r="C110" t="s">
+        <v>56</v>
+      </c>
+      <c r="D110" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>152</v>
+      </c>
+      <c r="B111" t="s">
+        <v>133</v>
+      </c>
+      <c r="C111" t="s">
+        <v>62</v>
+      </c>
+      <c r="D111" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>145</v>
+      </c>
+      <c r="B112" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112" t="s">
+        <v>47</v>
+      </c>
+      <c r="D112" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>140</v>
+      </c>
+      <c r="B113" t="s">
+        <v>134</v>
+      </c>
+      <c r="C113" t="s">
+        <v>51</v>
+      </c>
+      <c r="D113" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>141</v>
+      </c>
+      <c r="B114" t="s">
+        <v>135</v>
+      </c>
+      <c r="C114" t="s">
+        <v>73</v>
+      </c>
+      <c r="D114" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>142</v>
+      </c>
+      <c r="B115" t="s">
+        <v>136</v>
+      </c>
+      <c r="C115" t="s">
+        <v>64</v>
+      </c>
+      <c r="D115" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>143</v>
       </c>
-      <c r="B48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B49" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>121</v>
-      </c>
-      <c r="B50" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>122</v>
-      </c>
-      <c r="B52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53" t="s">
-        <v>120</v>
-      </c>
-      <c r="C53" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>124</v>
-      </c>
-      <c r="B54" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>125</v>
-      </c>
-      <c r="B55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>128</v>
-      </c>
-      <c r="B56" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" t="s">
-        <v>123</v>
-      </c>
-      <c r="D56" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>128</v>
-      </c>
-      <c r="B57" t="s">
-        <v>124</v>
-      </c>
-      <c r="C57" t="s">
-        <v>125</v>
-      </c>
-      <c r="D57" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" t="s">
-        <v>126</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B116" t="s">
         <v>127</v>
       </c>
-      <c r="D58" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>32</v>
-      </c>
-      <c r="B59" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="C116" t="s">
+        <v>70</v>
+      </c>
+      <c r="D116" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>139</v>
+      </c>
+      <c r="B117" t="s">
+        <v>137</v>
+      </c>
+      <c r="C117" t="s">
+        <v>71</v>
+      </c>
+      <c r="D117" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>21</v>
+      </c>
+      <c r="B118" t="s">
         <v>138</v>
       </c>
-      <c r="B60" t="s">
-        <v>31</v>
-      </c>
-      <c r="C60" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>160</v>
-      </c>
-      <c r="B61" t="s">
-        <v>31</v>
-      </c>
-      <c r="C61" t="s">
-        <v>53</v>
-      </c>
-      <c r="D61" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>129</v>
-      </c>
-      <c r="B62" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" t="s">
-        <v>167</v>
-      </c>
-      <c r="E62">
-        <v>0.12</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <v>0.7</v>
-      </c>
-      <c r="H62">
-        <v>1630189.054</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>130</v>
-      </c>
-      <c r="B63" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63" t="s">
-        <v>167</v>
-      </c>
-      <c r="E63">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>0.6</v>
-      </c>
-      <c r="H63">
-        <v>15216753.91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>131</v>
-      </c>
-      <c r="B64" t="s">
-        <v>103</v>
-      </c>
-      <c r="C64" t="s">
-        <v>59</v>
-      </c>
-      <c r="D64" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>132</v>
-      </c>
-      <c r="B65" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" t="s">
-        <v>130</v>
-      </c>
-      <c r="D65" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66" t="s">
-        <v>131</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67" t="s">
-        <v>132</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="C118" t="s">
+        <v>139</v>
+      </c>
+      <c r="D118" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>21</v>
+      </c>
+      <c r="B119" t="s">
+        <v>140</v>
+      </c>
+      <c r="C119" t="s">
+        <v>141</v>
+      </c>
+      <c r="D119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>21</v>
+      </c>
+      <c r="B120" t="s">
+        <v>142</v>
+      </c>
+      <c r="C120" t="s">
+        <v>143</v>
+      </c>
+      <c r="D120" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>149</v>
+      </c>
+      <c r="B121" t="s">
+        <v>144</v>
+      </c>
+      <c r="C121" t="s">
         <v>74</v>
       </c>
-      <c r="D67" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>135</v>
-      </c>
-      <c r="B68" t="s">
-        <v>133</v>
-      </c>
-      <c r="C68" t="s">
-        <v>62</v>
-      </c>
-      <c r="D68" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>135</v>
-      </c>
-      <c r="B69" t="s">
-        <v>134</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="D121" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>150</v>
+      </c>
+      <c r="B122" t="s">
+        <v>145</v>
+      </c>
+      <c r="C122" t="s">
+        <v>72</v>
+      </c>
+      <c r="D122" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>151</v>
+      </c>
+      <c r="B123" t="s">
+        <v>146</v>
+      </c>
+      <c r="C123" t="s">
         <v>63</v>
       </c>
-      <c r="D69" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>136</v>
-      </c>
-      <c r="B70" t="s">
-        <v>135</v>
-      </c>
-      <c r="C70" t="s">
-        <v>64</v>
-      </c>
-      <c r="D70" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="D123" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>22</v>
+      </c>
+      <c r="B124" t="s">
+        <v>147</v>
+      </c>
+      <c r="C124" t="s">
+        <v>148</v>
+      </c>
+      <c r="D124" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>22</v>
+      </c>
+      <c r="B125" t="s">
+        <v>149</v>
+      </c>
+      <c r="C125" t="s">
+        <v>150</v>
+      </c>
+      <c r="D125" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>22</v>
+      </c>
+      <c r="B126" t="s">
         <v>151</v>
       </c>
-      <c r="B71" t="s">
-        <v>135</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>156</v>
+      </c>
+      <c r="B127" t="s">
+        <v>152</v>
+      </c>
+      <c r="C127" t="s">
+        <v>75</v>
+      </c>
+      <c r="D127" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>157</v>
+      </c>
+      <c r="B128" t="s">
+        <v>153</v>
+      </c>
+      <c r="C128" t="s">
         <v>65</v>
       </c>
-      <c r="D71" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>158</v>
-      </c>
-      <c r="B72" t="s">
-        <v>135</v>
-      </c>
-      <c r="C72" t="s">
-        <v>66</v>
-      </c>
-      <c r="D72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>137</v>
-      </c>
-      <c r="B73" t="s">
-        <v>104</v>
-      </c>
-      <c r="C73" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>141</v>
-      </c>
-      <c r="B74" t="s">
-        <v>136</v>
-      </c>
-      <c r="C74" t="s">
-        <v>137</v>
-      </c>
-      <c r="D74" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>139</v>
-      </c>
-      <c r="B75" t="s">
-        <v>43</v>
-      </c>
-      <c r="D75" t="s">
-        <v>167</v>
-      </c>
-      <c r="E75">
-        <v>0.22</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>0.7</v>
-      </c>
-      <c r="H75">
-        <v>1630189.054</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>142</v>
-      </c>
-      <c r="B76" t="s">
-        <v>44</v>
-      </c>
-      <c r="D76" t="s">
-        <v>167</v>
-      </c>
-      <c r="E76">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <v>0.6</v>
-      </c>
-      <c r="H76">
-        <v>15216753.91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>140</v>
-      </c>
-      <c r="B77" t="s">
-        <v>134</v>
-      </c>
-      <c r="C77" t="s">
-        <v>60</v>
-      </c>
-      <c r="D77" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>149</v>
-      </c>
-      <c r="B78" t="s">
-        <v>133</v>
-      </c>
-      <c r="C78" t="s">
-        <v>61</v>
-      </c>
-      <c r="D78" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="D128" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>23</v>
+      </c>
+      <c r="B129" t="s">
+        <v>154</v>
+      </c>
+      <c r="C129" t="s">
+        <v>155</v>
+      </c>
+      <c r="D129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" t="s">
+        <v>156</v>
+      </c>
+      <c r="C130" t="s">
         <v>157</v>
       </c>
-      <c r="B79" t="s">
-        <v>138</v>
-      </c>
-      <c r="C79" t="s">
-        <v>67</v>
-      </c>
-      <c r="D79" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>150</v>
-      </c>
-      <c r="B80" t="s">
-        <v>30</v>
-      </c>
-      <c r="C80" t="s">
-        <v>52</v>
-      </c>
-      <c r="D80" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>145</v>
-      </c>
-      <c r="B81" t="s">
-        <v>139</v>
-      </c>
-      <c r="C81" t="s">
-        <v>56</v>
-      </c>
-      <c r="D81" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>146</v>
-      </c>
-      <c r="B82" t="s">
-        <v>140</v>
-      </c>
-      <c r="C82" t="s">
-        <v>78</v>
-      </c>
-      <c r="D82" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>147</v>
-      </c>
-      <c r="B83" t="s">
-        <v>141</v>
-      </c>
-      <c r="C83" t="s">
-        <v>69</v>
-      </c>
-      <c r="D83" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>148</v>
-      </c>
-      <c r="B84" t="s">
-        <v>132</v>
-      </c>
-      <c r="C84" t="s">
-        <v>75</v>
-      </c>
-      <c r="D84" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>144</v>
-      </c>
-      <c r="B85" t="s">
-        <v>142</v>
-      </c>
-      <c r="C85" t="s">
-        <v>76</v>
-      </c>
-      <c r="D85" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>26</v>
-      </c>
-      <c r="B86" t="s">
-        <v>143</v>
-      </c>
-      <c r="C86" t="s">
-        <v>144</v>
-      </c>
-      <c r="D86" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>26</v>
-      </c>
-      <c r="B87" t="s">
-        <v>145</v>
-      </c>
-      <c r="C87" t="s">
-        <v>146</v>
-      </c>
-      <c r="D87" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>26</v>
-      </c>
-      <c r="B88" t="s">
-        <v>147</v>
-      </c>
-      <c r="C88" t="s">
-        <v>148</v>
-      </c>
-      <c r="D88" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>154</v>
-      </c>
-      <c r="B89" t="s">
-        <v>149</v>
-      </c>
-      <c r="C89" t="s">
-        <v>79</v>
-      </c>
-      <c r="D89" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>155</v>
-      </c>
-      <c r="B90" t="s">
-        <v>150</v>
-      </c>
-      <c r="C90" t="s">
-        <v>77</v>
-      </c>
-      <c r="D90" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>156</v>
-      </c>
-      <c r="B91" t="s">
-        <v>151</v>
-      </c>
-      <c r="C91" t="s">
-        <v>68</v>
-      </c>
-      <c r="D91" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>27</v>
-      </c>
-      <c r="B92" t="s">
-        <v>152</v>
-      </c>
-      <c r="C92" t="s">
-        <v>153</v>
-      </c>
-      <c r="D92" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>27</v>
-      </c>
-      <c r="B93" t="s">
-        <v>154</v>
-      </c>
-      <c r="C93" t="s">
-        <v>155</v>
-      </c>
-      <c r="D93" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>27</v>
-      </c>
-      <c r="B94" t="s">
-        <v>156</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>161</v>
-      </c>
-      <c r="B95" t="s">
-        <v>157</v>
-      </c>
-      <c r="C95" t="s">
-        <v>80</v>
-      </c>
-      <c r="D95" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="D130" t="s">
         <v>162</v>
       </c>
-      <c r="B96" t="s">
-        <v>158</v>
-      </c>
-      <c r="C96" t="s">
-        <v>70</v>
-      </c>
-      <c r="D96" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>28</v>
-      </c>
-      <c r="B97" t="s">
-        <v>159</v>
-      </c>
-      <c r="C97" t="s">
-        <v>160</v>
-      </c>
-      <c r="D97" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>28</v>
-      </c>
-      <c r="B98" t="s">
-        <v>161</v>
-      </c>
-      <c r="C98" t="s">
-        <v>162</v>
-      </c>
-      <c r="D98" t="s">
-        <v>168</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H98" xr:uid="{45498073-CC56-2D41-B5D6-3D03F1233978}"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4330,27 +5133,27 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>1</v>

--- a/src/vlinder/data/Refugee/xlsx/Refugee.xlsx
+++ b/src/vlinder/data/Refugee/xlsx/Refugee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aweijden002\Documents\tRBS anne\Fork Ruen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/Tooling/vlinder/trbs/src/vlinder/data/Refugee/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BECE9F11-9E77-4022-ADDB-7A7F3A737421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0A7D9D-83E6-C446-A030-CB48B0018DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
+    <workbookView xWindow="5520" yWindow="760" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="299">
   <si>
     <t>configuration</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>end</t>
-  </si>
-  <si>
-    <t>threshold</t>
   </si>
   <si>
     <t>internal_variable_input</t>
@@ -1406,16 +1403,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323C0127-B98F-8F4A-8B9E-DB2076867E31}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1423,12 +1420,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>233</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -1444,70 +1441,70 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>21</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1526,35 +1523,35 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1573,255 +1570,255 @@
       <selection sqref="A1:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="163.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="6"/>
+    <col min="3" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="7" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B15" s="7" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B16" s="7" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B17" s="8" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B18" s="7" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B19" s="7" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="B20" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B20" s="7" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="B23" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B23" s="7" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B24" s="7" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B25" s="7" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="B26" s="7" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B27" s="7" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="B28" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B28" s="7" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B29" s="7" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B30" s="7" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>231</v>
-      </c>
       <c r="B31" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1837,30 +1834,30 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="6"/>
+    <col min="3" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="189" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" s="7"/>
     </row>
   </sheetData>
@@ -1870,19 +1867,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F27D205-AE79-E542-BA48-2D4707481E26}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1907,16 +1904,13 @@
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1937,12 +1931,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1963,12 +1957,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1989,12 +1983,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2015,12 +2009,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2041,12 +2035,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2067,12 +2061,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2106,296 +2100,296 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>3234502</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>3234502</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>3234502</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>3234502</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>3881402.4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>2587601.6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>1293800.8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>1293800.8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>1293800.8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>1293800.8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>1293800.8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23">
         <v>2587601.6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>3881402.4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2414,216 +2408,216 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="60" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2">
         <v>2587601.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>2587601.6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>5175203.3470000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5">
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
         <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
       </c>
       <c r="C6">
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>36972</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>21384</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>27084</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>26796</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12">
         <v>43512</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13">
         <v>25332</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14">
         <v>34872</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15">
         <v>30492</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>50052</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17">
         <v>34332</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <v>40776</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>34080</v>
@@ -2642,630 +2636,630 @@
       <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>0.81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>0.81</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>0.37</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3">
         <v>0.26600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3">
         <v>0.26600000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3">
         <v>0.26600000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>0.15490000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>0.22900000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="3">
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="3">
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>0.26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>0.26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20">
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21">
         <v>0.82</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22">
         <v>0.82</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23">
         <v>9.1200000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24">
         <v>0.7</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25">
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26">
         <v>0.158</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27">
         <v>0.26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28">
         <v>0.36299999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B29">
         <v>0.39100000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B30">
         <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31">
         <v>0.46</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32">
         <v>0.46</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33">
         <v>0.46</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37">
         <v>20700</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39">
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40">
         <v>0.74199999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41">
         <v>1532</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42">
         <v>24000</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B43">
         <v>3105</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B44">
         <v>3120</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B45">
         <v>3120</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B46">
         <v>14352</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B47">
         <v>0.47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B49">
         <v>0.71</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B50">
         <v>13774010.720000001</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B51">
         <v>0.42</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B53">
         <v>0.7</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B54">
         <v>1630189.054</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B55">
         <v>0.65</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B57">
         <v>0.7</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B58">
         <v>7946938.7560000001</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B59">
         <v>0.68</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B61">
         <v>0.6</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B62">
         <v>8150945.2719999999</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B63">
         <v>0.12</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B65">
         <v>0.7</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B66">
         <v>1630189.054</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B67">
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B69">
         <v>0.6</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B70">
         <v>15216753.91</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B71">
         <v>0.22</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B73">
         <v>0.7</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B74">
         <v>1630189.054</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B75">
         <v>0.53700000000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B77">
         <v>0.6</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B78">
         <v>15216753.91</v>
@@ -3288,1835 +3282,1835 @@
       <selection activeCell="E1" sqref="E1:N39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.875" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>239</v>
       </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>238</v>
-      </c>
-      <c r="D2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>240</v>
-      </c>
-      <c r="B3" t="s">
-        <v>239</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>241</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>240</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>236</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>147</v>
-      </c>
-      <c r="B17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>248</v>
       </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
         <v>247</v>
-      </c>
-      <c r="D19" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>249</v>
-      </c>
-      <c r="B20" t="s">
-        <v>248</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22" t="s">
+        <v>245</v>
+      </c>
+      <c r="D22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>250</v>
-      </c>
-      <c r="B21" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" t="s">
-        <v>245</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>255</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D24" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>251</v>
-      </c>
-      <c r="B22" t="s">
-        <v>250</v>
-      </c>
-      <c r="C22" t="s">
-        <v>246</v>
-      </c>
-      <c r="D22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" t="s">
-        <v>251</v>
-      </c>
-      <c r="C23" t="s">
-        <v>244</v>
-      </c>
-      <c r="D23" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>256</v>
       </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B25" t="s">
         <v>255</v>
-      </c>
-      <c r="D24" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>257</v>
-      </c>
-      <c r="B25" t="s">
-        <v>256</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>257</v>
+      </c>
+      <c r="B26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" t="s">
+        <v>252</v>
+      </c>
+      <c r="D26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>258</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>257</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>253</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" t="s">
+        <v>258</v>
+      </c>
+      <c r="C28" t="s">
+        <v>251</v>
+      </c>
+      <c r="D28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>263</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>262</v>
+      </c>
+      <c r="D32" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>259</v>
-      </c>
-      <c r="B27" t="s">
-        <v>258</v>
-      </c>
-      <c r="C27" t="s">
-        <v>254</v>
-      </c>
-      <c r="D27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" t="s">
-        <v>259</v>
-      </c>
-      <c r="C28" t="s">
-        <v>252</v>
-      </c>
-      <c r="D28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>98</v>
-      </c>
-      <c r="B29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>168</v>
-      </c>
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>170</v>
-      </c>
-      <c r="B31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" t="s">
-        <v>168</v>
-      </c>
-      <c r="D31" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>264</v>
       </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B33" t="s">
         <v>263</v>
-      </c>
-      <c r="D32" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>265</v>
-      </c>
-      <c r="B33" t="s">
-        <v>264</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>265</v>
+      </c>
+      <c r="B34" t="s">
+        <v>264</v>
+      </c>
+      <c r="C34" t="s">
+        <v>260</v>
+      </c>
+      <c r="D34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>266</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>265</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>261</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s">
+        <v>266</v>
+      </c>
+      <c r="C36" t="s">
+        <v>259</v>
+      </c>
+      <c r="D36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>267</v>
-      </c>
-      <c r="B35" t="s">
-        <v>266</v>
-      </c>
-      <c r="C35" t="s">
-        <v>262</v>
-      </c>
-      <c r="D35" t="s">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" t="s">
-        <v>267</v>
-      </c>
-      <c r="C36" t="s">
-        <v>260</v>
-      </c>
-      <c r="D36" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" t="s">
-        <v>170</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>101</v>
-      </c>
-      <c r="B38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" t="s">
         <v>113</v>
       </c>
-      <c r="B40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C40" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="C63" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" t="s">
         <v>113</v>
       </c>
-      <c r="B41" t="s">
-        <v>102</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="C68" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D73" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" t="s">
         <v>45</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D76" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" t="s">
+        <v>47</v>
+      </c>
+      <c r="D77" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B78" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" t="s">
+        <v>270</v>
+      </c>
+      <c r="D78" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" t="s">
-        <v>98</v>
-      </c>
-      <c r="C43" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" t="s">
-        <v>66</v>
-      </c>
-      <c r="D44" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>129</v>
-      </c>
-      <c r="B45" t="s">
-        <v>103</v>
-      </c>
-      <c r="C45" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>129</v>
-      </c>
-      <c r="B46" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>106</v>
-      </c>
-      <c r="B47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>107</v>
-      </c>
-      <c r="B48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>108</v>
-      </c>
-      <c r="B49" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C50" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>114</v>
-      </c>
-      <c r="B53" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" t="s">
-        <v>80</v>
-      </c>
-      <c r="D53" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>111</v>
-      </c>
-      <c r="B54" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" t="s">
-        <v>81</v>
-      </c>
-      <c r="D54" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" t="s">
-        <v>82</v>
-      </c>
-      <c r="D55" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>122</v>
-      </c>
-      <c r="B57" t="s">
-        <v>35</v>
-      </c>
-      <c r="C57" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58" t="s">
-        <v>111</v>
-      </c>
-      <c r="C58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D58" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>128</v>
-      </c>
-      <c r="B59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" t="s">
-        <v>44</v>
-      </c>
-      <c r="D59" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>148</v>
-      </c>
-      <c r="B60" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>26</v>
-      </c>
-      <c r="B61" t="s">
-        <v>112</v>
-      </c>
-      <c r="C61" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" t="s">
-        <v>85</v>
-      </c>
-      <c r="D63" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>138</v>
-      </c>
-      <c r="B64" t="s">
-        <v>24</v>
-      </c>
-      <c r="C64" t="s">
-        <v>50</v>
-      </c>
-      <c r="D64" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>115</v>
-      </c>
-      <c r="B65" t="s">
-        <v>113</v>
-      </c>
-      <c r="C65" t="s">
-        <v>85</v>
-      </c>
-      <c r="D65" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>116</v>
-      </c>
-      <c r="B66" t="s">
-        <v>115</v>
-      </c>
-      <c r="C66" t="s">
-        <v>79</v>
-      </c>
-      <c r="D66" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>121</v>
-      </c>
-      <c r="B67" t="s">
-        <v>116</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>117</v>
-      </c>
-      <c r="B68" t="s">
-        <v>114</v>
-      </c>
-      <c r="C68" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>118</v>
-      </c>
-      <c r="B69" t="s">
-        <v>115</v>
-      </c>
-      <c r="C69" t="s">
-        <v>86</v>
-      </c>
-      <c r="D69" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>119</v>
-      </c>
-      <c r="B70" t="s">
-        <v>111</v>
-      </c>
-      <c r="C70" t="s">
-        <v>87</v>
-      </c>
-      <c r="D70" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" t="s">
-        <v>112</v>
-      </c>
-      <c r="C71" t="s">
-        <v>88</v>
-      </c>
-      <c r="D71" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>123</v>
-      </c>
-      <c r="B72" t="s">
-        <v>117</v>
-      </c>
-      <c r="C72" t="s">
-        <v>118</v>
-      </c>
-      <c r="D72" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>123</v>
-      </c>
-      <c r="B73" t="s">
-        <v>119</v>
-      </c>
-      <c r="C73" t="s">
-        <v>120</v>
-      </c>
-      <c r="D73" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>27</v>
-      </c>
-      <c r="B74" t="s">
-        <v>121</v>
-      </c>
-      <c r="C74" t="s">
-        <v>122</v>
-      </c>
-      <c r="D74" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>27</v>
-      </c>
-      <c r="B75" t="s">
-        <v>123</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>133</v>
-      </c>
-      <c r="B76" t="s">
-        <v>26</v>
-      </c>
-      <c r="C76" t="s">
-        <v>46</v>
-      </c>
-      <c r="D76" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>155</v>
-      </c>
-      <c r="B77" t="s">
-        <v>26</v>
-      </c>
-      <c r="C77" t="s">
-        <v>48</v>
-      </c>
-      <c r="D77" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="B78" t="s">
-        <v>38</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B79" s="11" t="s">
         <v>271</v>
-      </c>
-      <c r="D78" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>272</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C80" t="s">
+        <v>268</v>
+      </c>
+      <c r="D80" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B81" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>269</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D81" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C82" t="s">
+        <v>267</v>
+      </c>
+      <c r="D82" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B83" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" t="s">
+        <v>278</v>
+      </c>
+      <c r="D83" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="C81" t="s">
-        <v>270</v>
-      </c>
-      <c r="D81" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>124</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="C82" t="s">
-        <v>268</v>
-      </c>
-      <c r="D82" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="11" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="B83" t="s">
-        <v>39</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B84" s="11" t="s">
         <v>279</v>
-      </c>
-      <c r="D83" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>280</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C85" t="s">
+        <v>276</v>
+      </c>
+      <c r="D85" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B86" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C86" t="s">
         <v>277</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D86" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>124</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C87" t="s">
+        <v>275</v>
+      </c>
+      <c r="D87" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" t="s">
+        <v>97</v>
+      </c>
+      <c r="C88" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89" t="s">
+        <v>124</v>
+      </c>
+      <c r="D89" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>129</v>
+      </c>
+      <c r="B91" t="s">
+        <v>126</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92" t="s">
+        <v>56</v>
+      </c>
+      <c r="D92" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93" t="s">
+        <v>128</v>
+      </c>
+      <c r="C93" t="s">
+        <v>57</v>
+      </c>
+      <c r="D93" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>130</v>
+      </c>
+      <c r="B94" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" t="s">
+        <v>58</v>
+      </c>
+      <c r="D94" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>145</v>
+      </c>
+      <c r="B95" t="s">
+        <v>129</v>
+      </c>
+      <c r="C95" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>152</v>
+      </c>
+      <c r="B96" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" t="s">
+        <v>60</v>
+      </c>
+      <c r="D96" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>131</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" t="s">
+        <v>66</v>
+      </c>
+      <c r="D97" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>135</v>
+      </c>
+      <c r="B98" t="s">
+        <v>130</v>
+      </c>
+      <c r="C98" t="s">
+        <v>131</v>
+      </c>
+      <c r="D98" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>287</v>
+      </c>
+      <c r="B99" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" t="s">
+        <v>286</v>
+      </c>
+      <c r="D99" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="C86" t="s">
-        <v>278</v>
-      </c>
-      <c r="D86" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>125</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="C87" t="s">
-        <v>276</v>
-      </c>
-      <c r="D87" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>126</v>
-      </c>
-      <c r="B88" t="s">
-        <v>98</v>
-      </c>
-      <c r="C88" t="s">
-        <v>54</v>
-      </c>
-      <c r="D88" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>127</v>
-      </c>
-      <c r="B89" t="s">
-        <v>124</v>
-      </c>
-      <c r="C89" t="s">
-        <v>125</v>
-      </c>
-      <c r="D89" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>127</v>
-      </c>
-      <c r="B90" t="s">
-        <v>126</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>130</v>
-      </c>
-      <c r="B91" t="s">
-        <v>127</v>
-      </c>
-      <c r="C91" t="s">
-        <v>69</v>
-      </c>
-      <c r="D91" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>130</v>
-      </c>
-      <c r="B92" t="s">
-        <v>128</v>
-      </c>
-      <c r="C92" t="s">
-        <v>57</v>
-      </c>
-      <c r="D92" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>130</v>
-      </c>
-      <c r="B93" t="s">
-        <v>129</v>
-      </c>
-      <c r="C93" t="s">
-        <v>58</v>
-      </c>
-      <c r="D93" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>131</v>
-      </c>
-      <c r="B94" t="s">
-        <v>130</v>
-      </c>
-      <c r="C94" t="s">
-        <v>59</v>
-      </c>
-      <c r="D94" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>146</v>
-      </c>
-      <c r="B95" t="s">
-        <v>130</v>
-      </c>
-      <c r="C95" t="s">
-        <v>60</v>
-      </c>
-      <c r="D95" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>153</v>
-      </c>
-      <c r="B96" t="s">
-        <v>130</v>
-      </c>
-      <c r="C96" t="s">
-        <v>61</v>
-      </c>
-      <c r="D96" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>132</v>
-      </c>
-      <c r="B97" t="s">
-        <v>99</v>
-      </c>
-      <c r="C97" t="s">
-        <v>67</v>
-      </c>
-      <c r="D97" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>136</v>
-      </c>
-      <c r="B98" t="s">
-        <v>131</v>
-      </c>
-      <c r="C98" t="s">
-        <v>132</v>
-      </c>
-      <c r="D98" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>288</v>
       </c>
-      <c r="B99" t="s">
-        <v>38</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B100" t="s">
         <v>287</v>
-      </c>
-      <c r="D99" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>289</v>
-      </c>
-      <c r="B100" t="s">
-        <v>288</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>289</v>
+      </c>
+      <c r="B101" t="s">
+        <v>288</v>
+      </c>
+      <c r="C101" t="s">
+        <v>284</v>
+      </c>
+      <c r="D101" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>290</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>289</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>285</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D102" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>133</v>
+      </c>
+      <c r="B103" t="s">
+        <v>290</v>
+      </c>
+      <c r="C103" t="s">
+        <v>283</v>
+      </c>
+      <c r="D103" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>295</v>
+      </c>
+      <c r="B104" t="s">
+        <v>38</v>
+      </c>
+      <c r="C104" t="s">
+        <v>294</v>
+      </c>
+      <c r="D104" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>291</v>
-      </c>
-      <c r="B102" t="s">
-        <v>290</v>
-      </c>
-      <c r="C102" t="s">
-        <v>286</v>
-      </c>
-      <c r="D102" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>134</v>
-      </c>
-      <c r="B103" t="s">
-        <v>291</v>
-      </c>
-      <c r="C103" t="s">
-        <v>284</v>
-      </c>
-      <c r="D103" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>296</v>
       </c>
-      <c r="B104" t="s">
-        <v>39</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B105" t="s">
         <v>295</v>
-      </c>
-      <c r="D104" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>297</v>
-      </c>
-      <c r="B105" t="s">
-        <v>296</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>297</v>
+      </c>
+      <c r="B106" t="s">
+        <v>296</v>
+      </c>
+      <c r="C106" t="s">
+        <v>292</v>
+      </c>
+      <c r="D106" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>298</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>297</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C107" t="s">
         <v>293</v>
       </c>
-      <c r="D106" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>299</v>
-      </c>
-      <c r="B107" t="s">
+      <c r="D107" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>136</v>
+      </c>
+      <c r="B108" t="s">
         <v>298</v>
       </c>
-      <c r="C107" t="s">
-        <v>294</v>
-      </c>
-      <c r="D107" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="C108" t="s">
+        <v>291</v>
+      </c>
+      <c r="D108" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>134</v>
+      </c>
+      <c r="B109" t="s">
+        <v>128</v>
+      </c>
+      <c r="C109" t="s">
+        <v>54</v>
+      </c>
+      <c r="D109" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110" t="s">
+        <v>127</v>
+      </c>
+      <c r="C110" t="s">
+        <v>55</v>
+      </c>
+      <c r="D110" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>151</v>
+      </c>
+      <c r="B111" t="s">
+        <v>132</v>
+      </c>
+      <c r="C111" t="s">
+        <v>61</v>
+      </c>
+      <c r="D111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>144</v>
+      </c>
+      <c r="B112" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" t="s">
+        <v>46</v>
+      </c>
+      <c r="D112" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>139</v>
+      </c>
+      <c r="B113" t="s">
+        <v>133</v>
+      </c>
+      <c r="C113" t="s">
+        <v>50</v>
+      </c>
+      <c r="D113" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>140</v>
+      </c>
+      <c r="B114" t="s">
+        <v>134</v>
+      </c>
+      <c r="C114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D114" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>141</v>
+      </c>
+      <c r="B115" t="s">
+        <v>135</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>142</v>
+      </c>
+      <c r="B116" t="s">
+        <v>126</v>
+      </c>
+      <c r="C116" t="s">
+        <v>69</v>
+      </c>
+      <c r="D116" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>138</v>
+      </c>
+      <c r="B117" t="s">
+        <v>136</v>
+      </c>
+      <c r="C117" t="s">
+        <v>70</v>
+      </c>
+      <c r="D117" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>20</v>
+      </c>
+      <c r="B118" t="s">
         <v>137</v>
       </c>
-      <c r="B108" t="s">
-        <v>299</v>
-      </c>
-      <c r="C108" t="s">
-        <v>292</v>
-      </c>
-      <c r="D108" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>135</v>
-      </c>
-      <c r="B109" t="s">
-        <v>129</v>
-      </c>
-      <c r="C109" t="s">
-        <v>55</v>
-      </c>
-      <c r="D109" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="C118" t="s">
+        <v>138</v>
+      </c>
+      <c r="D118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" t="s">
+        <v>139</v>
+      </c>
+      <c r="C119" t="s">
+        <v>140</v>
+      </c>
+      <c r="D119" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120" t="s">
+        <v>141</v>
+      </c>
+      <c r="C120" t="s">
+        <v>142</v>
+      </c>
+      <c r="D120" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>148</v>
+      </c>
+      <c r="B121" t="s">
+        <v>143</v>
+      </c>
+      <c r="C121" t="s">
+        <v>73</v>
+      </c>
+      <c r="D121" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>149</v>
+      </c>
+      <c r="B122" t="s">
         <v>144</v>
       </c>
-      <c r="B110" t="s">
-        <v>128</v>
-      </c>
-      <c r="C110" t="s">
-        <v>56</v>
-      </c>
-      <c r="D110" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="C122" t="s">
+        <v>71</v>
+      </c>
+      <c r="D122" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>150</v>
+      </c>
+      <c r="B123" t="s">
+        <v>145</v>
+      </c>
+      <c r="C123" t="s">
+        <v>62</v>
+      </c>
+      <c r="D123" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" t="s">
+        <v>146</v>
+      </c>
+      <c r="C124" t="s">
+        <v>147</v>
+      </c>
+      <c r="D124" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" t="s">
+        <v>148</v>
+      </c>
+      <c r="C125" t="s">
+        <v>149</v>
+      </c>
+      <c r="D125" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126" t="s">
+        <v>150</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>155</v>
+      </c>
+      <c r="B127" t="s">
+        <v>151</v>
+      </c>
+      <c r="C127" t="s">
+        <v>74</v>
+      </c>
+      <c r="D127" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>156</v>
+      </c>
+      <c r="B128" t="s">
         <v>152</v>
       </c>
-      <c r="B111" t="s">
-        <v>133</v>
-      </c>
-      <c r="C111" t="s">
-        <v>62</v>
-      </c>
-      <c r="D111" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>145</v>
-      </c>
-      <c r="B112" t="s">
-        <v>25</v>
-      </c>
-      <c r="C112" t="s">
-        <v>47</v>
-      </c>
-      <c r="D112" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>140</v>
-      </c>
-      <c r="B113" t="s">
-        <v>134</v>
-      </c>
-      <c r="C113" t="s">
-        <v>51</v>
-      </c>
-      <c r="D113" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>141</v>
-      </c>
-      <c r="B114" t="s">
-        <v>135</v>
-      </c>
-      <c r="C114" t="s">
-        <v>73</v>
-      </c>
-      <c r="D114" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>142</v>
-      </c>
-      <c r="B115" t="s">
-        <v>136</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="C128" t="s">
         <v>64</v>
       </c>
-      <c r="D115" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>143</v>
-      </c>
-      <c r="B116" t="s">
-        <v>127</v>
-      </c>
-      <c r="C116" t="s">
-        <v>70</v>
-      </c>
-      <c r="D116" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>139</v>
-      </c>
-      <c r="B117" t="s">
-        <v>137</v>
-      </c>
-      <c r="C117" t="s">
-        <v>71</v>
-      </c>
-      <c r="D117" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>21</v>
-      </c>
-      <c r="B118" t="s">
-        <v>138</v>
-      </c>
-      <c r="C118" t="s">
-        <v>139</v>
-      </c>
-      <c r="D118" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>21</v>
-      </c>
-      <c r="B119" t="s">
-        <v>140</v>
-      </c>
-      <c r="C119" t="s">
-        <v>141</v>
-      </c>
-      <c r="D119" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>21</v>
-      </c>
-      <c r="B120" t="s">
-        <v>142</v>
-      </c>
-      <c r="C120" t="s">
-        <v>143</v>
-      </c>
-      <c r="D120" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>149</v>
-      </c>
-      <c r="B121" t="s">
-        <v>144</v>
-      </c>
-      <c r="C121" t="s">
-        <v>74</v>
-      </c>
-      <c r="D121" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>150</v>
-      </c>
-      <c r="B122" t="s">
-        <v>145</v>
-      </c>
-      <c r="C122" t="s">
-        <v>72</v>
-      </c>
-      <c r="D122" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>151</v>
-      </c>
-      <c r="B123" t="s">
-        <v>146</v>
-      </c>
-      <c r="C123" t="s">
-        <v>63</v>
-      </c>
-      <c r="D123" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="D128" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>22</v>
       </c>
-      <c r="B124" t="s">
-        <v>147</v>
-      </c>
-      <c r="C124" t="s">
-        <v>148</v>
-      </c>
-      <c r="D124" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="B129" t="s">
+        <v>153</v>
+      </c>
+      <c r="C129" t="s">
+        <v>154</v>
+      </c>
+      <c r="D129" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>22</v>
       </c>
-      <c r="B125" t="s">
-        <v>149</v>
-      </c>
-      <c r="C125" t="s">
-        <v>150</v>
-      </c>
-      <c r="D125" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>22</v>
-      </c>
-      <c r="B126" t="s">
-        <v>151</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="B130" t="s">
+        <v>155</v>
+      </c>
+      <c r="C130" t="s">
         <v>156</v>
       </c>
-      <c r="B127" t="s">
-        <v>152</v>
-      </c>
-      <c r="C127" t="s">
-        <v>75</v>
-      </c>
-      <c r="D127" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>157</v>
-      </c>
-      <c r="B128" t="s">
-        <v>153</v>
-      </c>
-      <c r="C128" t="s">
-        <v>65</v>
-      </c>
-      <c r="D128" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>23</v>
-      </c>
-      <c r="B129" t="s">
-        <v>154</v>
-      </c>
-      <c r="C129" t="s">
-        <v>155</v>
-      </c>
-      <c r="D129" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>23</v>
-      </c>
-      <c r="B130" t="s">
-        <v>156</v>
-      </c>
-      <c r="C130" t="s">
-        <v>157</v>
-      </c>
       <c r="D130" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -5133,27 +5127,27 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1</v>

--- a/src/vlinder/data/Refugee/xlsx/Refugee.xlsx
+++ b/src/vlinder/data/Refugee/xlsx/Refugee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttami001/Documents/forked_tbrs_opensource/trbs/src/vlinder/data/refugee/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/Tooling/vlinder/trbs/src/vlinder/data/Refugee/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1FCBF3-1EAE-0543-B25E-9A26D4D02AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0A7D9D-83E6-C446-A030-CB48B0018DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="-21280" windowWidth="31660" windowHeight="15880" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
+    <workbookView xWindow="5520" yWindow="760" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,10 @@
     <sheet name="scenario_weights" sheetId="9" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">dependencies!$A$1:$H$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">dependencies!$A$1:$H$130</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">fixed_inputs!$A$1:$B$46</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="299">
   <si>
     <t>configuration</t>
   </si>
@@ -82,9 +82,6 @@
     <t>end</t>
   </si>
   <si>
-    <t>threshold</t>
-  </si>
-  <si>
     <t>internal_variable_input</t>
   </si>
   <si>
@@ -112,24 +109,9 @@
     <t>operator</t>
   </si>
   <si>
-    <t>maximum_effect</t>
-  </si>
-  <si>
-    <t>accessibility</t>
-  </si>
-  <si>
-    <t>probability_of_success</t>
-  </si>
-  <si>
-    <t>saturation_point</t>
-  </si>
-  <si>
     <t>weight</t>
   </si>
   <si>
-    <t>use_theme_weights</t>
-  </si>
-  <si>
     <t>Quality of life Ukrainians</t>
   </si>
   <si>
@@ -553,9 +535,6 @@
     <t>Base case</t>
   </si>
   <si>
-    <t>squeezed *</t>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -773,13 +752,208 @@
   </si>
   <si>
     <t>EN</t>
+  </si>
+  <si>
+    <t>TECU_me</t>
+  </si>
+  <si>
+    <t>TECU_acc</t>
+  </si>
+  <si>
+    <t>TECU_pos</t>
+  </si>
+  <si>
+    <t>TECU_sp</t>
+  </si>
+  <si>
+    <t>TECU_1</t>
+  </si>
+  <si>
+    <t>TECU_2</t>
+  </si>
+  <si>
+    <t>TECU_3</t>
+  </si>
+  <si>
+    <t>TECU_4</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>LAUS_me</t>
+  </si>
+  <si>
+    <t>LAUS_acc</t>
+  </si>
+  <si>
+    <t>LAUS_pos</t>
+  </si>
+  <si>
+    <t>LAUS_sp</t>
+  </si>
+  <si>
+    <t>LAUS_1</t>
+  </si>
+  <si>
+    <t>LAUS_2</t>
+  </si>
+  <si>
+    <t>LAUS_3</t>
+  </si>
+  <si>
+    <t>LAUS_4</t>
+  </si>
+  <si>
+    <t>LAUI_me</t>
+  </si>
+  <si>
+    <t>LAUI_acc</t>
+  </si>
+  <si>
+    <t>LAUI_pos</t>
+  </si>
+  <si>
+    <t>LAUI_sp</t>
+  </si>
+  <si>
+    <t>LAUI_1</t>
+  </si>
+  <si>
+    <t>LAUI_2</t>
+  </si>
+  <si>
+    <t>LAUI_3</t>
+  </si>
+  <si>
+    <t>LAUI_4</t>
+  </si>
+  <si>
+    <t>URUE_me</t>
+  </si>
+  <si>
+    <t>URUE_acc</t>
+  </si>
+  <si>
+    <t>URUE_pos</t>
+  </si>
+  <si>
+    <t>URUE_sp</t>
+  </si>
+  <si>
+    <t>URUE_1</t>
+  </si>
+  <si>
+    <t>URUE_2</t>
+  </si>
+  <si>
+    <t>URUE_3</t>
+  </si>
+  <si>
+    <t>URUE_4</t>
+  </si>
+  <si>
+    <t>SCUS_me</t>
+  </si>
+  <si>
+    <t>SCUS_acc</t>
+  </si>
+  <si>
+    <t>SCUS_pos</t>
+  </si>
+  <si>
+    <t>SCUS_sp</t>
+  </si>
+  <si>
+    <t>SCUS_1</t>
+  </si>
+  <si>
+    <t>SCUS_2</t>
+  </si>
+  <si>
+    <t>SCUS_3</t>
+  </si>
+  <si>
+    <t>SCUS_4</t>
+  </si>
+  <si>
+    <t>SCUT_me</t>
+  </si>
+  <si>
+    <t>SCUT_acc</t>
+  </si>
+  <si>
+    <t>SCUT_pos</t>
+  </si>
+  <si>
+    <t>SCUT_sp</t>
+  </si>
+  <si>
+    <t>SCUT_1</t>
+  </si>
+  <si>
+    <t>SCUT_2</t>
+  </si>
+  <si>
+    <t>SCUT_3</t>
+  </si>
+  <si>
+    <t>SCUT_4</t>
+  </si>
+  <si>
+    <t>HUSA_me</t>
+  </si>
+  <si>
+    <t>HUSA_acc</t>
+  </si>
+  <si>
+    <t>HUSA_pos</t>
+  </si>
+  <si>
+    <t>HUSA_sp</t>
+  </si>
+  <si>
+    <t>HUSA_1</t>
+  </si>
+  <si>
+    <t>HUSA_2</t>
+  </si>
+  <si>
+    <t>HUSA_3</t>
+  </si>
+  <si>
+    <t>HUSA_4</t>
+  </si>
+  <si>
+    <t>SPUAT_me</t>
+  </si>
+  <si>
+    <t>SPUAT_acc</t>
+  </si>
+  <si>
+    <t>SPUAT_pos</t>
+  </si>
+  <si>
+    <t>SPUAT_sp</t>
+  </si>
+  <si>
+    <t>SPUAT_1</t>
+  </si>
+  <si>
+    <t>SPUAT_2</t>
+  </si>
+  <si>
+    <t>SPUAT_3</t>
+  </si>
+  <si>
+    <t>SPUAT_4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -809,6 +983,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -869,7 +1056,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -887,6 +1074,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1213,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323C0127-B98F-8F4A-8B9E-DB2076867E31}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1233,19 +1421,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>240</v>
+      <c r="A2" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -1271,12 +1451,12 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1284,7 +1464,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1292,7 +1472,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1300,7 +1480,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1308,7 +1488,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1316,7 +1496,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1324,7 +1504,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1347,15 +1527,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1363,7 +1543,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1371,7 +1551,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1390,7 +1570,7 @@
       <selection sqref="A1:B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="163.5" style="6" bestFit="1" customWidth="1"/>
@@ -1399,7 +1579,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1407,238 +1587,238 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B22" s="7"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1834,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" style="6" customWidth="1"/>
@@ -1663,7 +1843,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1671,10 +1851,10 @@
     </row>
     <row r="2" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1687,10 +1867,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F27D205-AE79-E542-BA48-2D4707481E26}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1699,7 +1879,7 @@
     <col min="4" max="4" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1724,16 +1904,13 @@
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1754,12 +1931,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1780,12 +1957,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1806,12 +1983,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1832,12 +2009,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1858,12 +2035,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1884,12 +2061,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1934,10 +2111,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1945,10 +2122,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1956,10 +2133,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1967,10 +2144,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C4">
         <v>3234502</v>
@@ -1978,10 +2155,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1989,10 +2166,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>3234502</v>
@@ -2000,10 +2177,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C7">
         <v>3234502</v>
@@ -2011,10 +2188,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2022,10 +2199,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>3234502</v>
@@ -2033,10 +2210,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2044,10 +2221,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2055,10 +2232,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>3881402.4</v>
@@ -2066,10 +2243,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>2587601.6</v>
@@ -2077,10 +2254,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2088,10 +2265,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2099,10 +2276,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2110,10 +2287,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>1293800.8</v>
@@ -2121,10 +2298,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C18">
         <v>1293800.8</v>
@@ -2132,10 +2309,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C19">
         <v>1293800.8</v>
@@ -2143,10 +2320,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>1293800.8</v>
@@ -2154,10 +2331,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>1293800.8</v>
@@ -2165,10 +2342,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2176,10 +2353,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C23">
         <v>2587601.6</v>
@@ -2187,10 +2364,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C24">
         <v>3881402.4</v>
@@ -2198,10 +2375,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2209,10 +2386,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2239,10 +2416,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2250,10 +2427,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C2">
         <v>2587601.6</v>
@@ -2261,10 +2438,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>2587601.6</v>
@@ -2272,10 +2449,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>5175203.3470000001</v>
@@ -2283,10 +2460,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C5">
         <v>0.7</v>
@@ -2294,10 +2471,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>0.7</v>
@@ -2305,10 +2482,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>0.7</v>
@@ -2316,10 +2493,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>36972</v>
@@ -2327,10 +2504,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>21384</v>
@@ -2338,10 +2515,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>27084</v>
@@ -2349,10 +2526,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>26796</v>
@@ -2360,10 +2537,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C12">
         <v>43512</v>
@@ -2371,10 +2548,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C13">
         <v>25332</v>
@@ -2382,10 +2559,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C14">
         <v>34872</v>
@@ -2393,10 +2570,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C15">
         <v>30492</v>
@@ -2404,10 +2581,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>50052</v>
@@ -2415,10 +2592,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C17">
         <v>34332</v>
@@ -2426,10 +2603,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C18">
         <v>40776</v>
@@ -2437,10 +2614,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>34080</v>
@@ -2453,10 +2630,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED761DDB-51CF-394F-9D46-C056F7FA6C46}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2466,7 +2643,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2474,7 +2651,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>0.81</v>
@@ -2482,7 +2659,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>0.81</v>
@@ -2490,7 +2667,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>0.37</v>
@@ -2498,7 +2675,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>0.01</v>
@@ -2506,7 +2683,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B6" s="3">
         <v>0.26600000000000001</v>
@@ -2514,7 +2691,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3">
         <v>0.26600000000000001</v>
@@ -2522,7 +2699,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3">
         <v>0.26600000000000001</v>
@@ -2530,7 +2707,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B9">
         <v>1.1200000000000001</v>
@@ -2538,7 +2715,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B10">
         <v>0.15490000000000001</v>
@@ -2546,7 +2723,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>0.22900000000000001</v>
@@ -2554,7 +2731,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B12">
         <v>2.1999999999999999E-2</v>
@@ -2562,7 +2739,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B13" s="3">
         <v>7.3000000000000001E-3</v>
@@ -2570,7 +2747,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B14" s="3">
         <v>7.3000000000000001E-3</v>
@@ -2578,7 +2755,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>0.26</v>
@@ -2586,7 +2763,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B16">
         <v>0.26</v>
@@ -2594,7 +2771,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B17">
         <v>0.28999999999999998</v>
@@ -2602,7 +2779,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B18">
         <v>0.28999999999999998</v>
@@ -2610,7 +2787,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B19">
         <v>0.28999999999999998</v>
@@ -2618,7 +2795,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B20">
         <v>4.1000000000000003E-3</v>
@@ -2626,7 +2803,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B21">
         <v>0.82</v>
@@ -2634,7 +2811,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B22">
         <v>0.82</v>
@@ -2642,7 +2819,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B23">
         <v>9.1200000000000003E-2</v>
@@ -2650,7 +2827,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B24">
         <v>0.7</v>
@@ -2658,7 +2835,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B25">
         <v>0.26700000000000002</v>
@@ -2666,7 +2843,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B26">
         <v>0.158</v>
@@ -2674,7 +2851,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B27">
         <v>0.26</v>
@@ -2682,7 +2859,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B28">
         <v>0.36299999999999999</v>
@@ -2690,7 +2867,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B29">
         <v>0.39100000000000001</v>
@@ -2698,7 +2875,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B30">
         <v>0.20899999999999999</v>
@@ -2706,7 +2883,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B31">
         <v>0.46</v>
@@ -2714,7 +2891,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B32">
         <v>0.46</v>
@@ -2722,7 +2899,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B33">
         <v>0.46</v>
@@ -2730,7 +2907,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
@@ -2738,7 +2915,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B35">
         <v>-0.05</v>
@@ -2746,7 +2923,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B36">
         <v>-0.05</v>
@@ -2754,7 +2931,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B37">
         <v>20700</v>
@@ -2762,7 +2939,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B38">
         <v>6.0999999999999999E-2</v>
@@ -2770,7 +2947,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B39">
         <v>0.19700000000000001</v>
@@ -2778,7 +2955,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B40">
         <v>0.74199999999999999</v>
@@ -2786,7 +2963,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B41">
         <v>1532</v>
@@ -2794,7 +2971,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B42">
         <v>24000</v>
@@ -2802,7 +2979,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B43">
         <v>3105</v>
@@ -2810,7 +2987,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B44">
         <v>3120</v>
@@ -2818,7 +2995,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B45">
         <v>3120</v>
@@ -2826,10 +3003,266 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B46">
         <v>14352</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>234</v>
+      </c>
+      <c r="B47">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>235</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>236</v>
+      </c>
+      <c r="B49">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>237</v>
+      </c>
+      <c r="B50">
+        <v>13774010.720000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>243</v>
+      </c>
+      <c r="B51">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>244</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>245</v>
+      </c>
+      <c r="B53">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>246</v>
+      </c>
+      <c r="B54">
+        <v>1630189.054</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>251</v>
+      </c>
+      <c r="B55">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>252</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>253</v>
+      </c>
+      <c r="B57">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>254</v>
+      </c>
+      <c r="B58">
+        <v>7946938.7560000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>259</v>
+      </c>
+      <c r="B59">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>260</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>261</v>
+      </c>
+      <c r="B61">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>262</v>
+      </c>
+      <c r="B62">
+        <v>8150945.2719999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>267</v>
+      </c>
+      <c r="B63">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>268</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>269</v>
+      </c>
+      <c r="B65">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>270</v>
+      </c>
+      <c r="B66">
+        <v>1630189.054</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>275</v>
+      </c>
+      <c r="B67">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>276</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>277</v>
+      </c>
+      <c r="B69">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>278</v>
+      </c>
+      <c r="B70">
+        <v>15216753.91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>283</v>
+      </c>
+      <c r="B71">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>284</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>285</v>
+      </c>
+      <c r="B73">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>286</v>
+      </c>
+      <c r="B74">
+        <v>1630189.054</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>291</v>
+      </c>
+      <c r="B75">
+        <v>0.53700000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>292</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>293</v>
+      </c>
+      <c r="B77">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>294</v>
+      </c>
+      <c r="B78">
+        <v>15216753.91</v>
       </c>
     </row>
   </sheetData>
@@ -2843,10 +3276,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45498073-CC56-2D41-B5D6-3D03F1233978}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A72" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2860,1464 +3293,1828 @@
     <col min="8" max="8" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>237</v>
       </c>
       <c r="D2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" t="s">
+        <v>244</v>
+      </c>
+      <c r="D21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22" t="s">
+        <v>245</v>
+      </c>
+      <c r="D22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>255</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>254</v>
+      </c>
+      <c r="D24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>257</v>
+      </c>
+      <c r="B26" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" t="s">
+        <v>252</v>
+      </c>
+      <c r="D26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>258</v>
+      </c>
+      <c r="B27" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" t="s">
+        <v>253</v>
+      </c>
+      <c r="D27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" t="s">
+        <v>258</v>
+      </c>
+      <c r="C28" t="s">
+        <v>251</v>
+      </c>
+      <c r="D28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>167</v>
       </c>
-      <c r="E2">
-        <v>0.47</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.71</v>
-      </c>
-      <c r="H2">
-        <v>13774010.720000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15">
-        <v>0.42</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.7</v>
-      </c>
-      <c r="H15">
-        <v>1630189.054</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16">
-        <v>0.65</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.7</v>
-      </c>
-      <c r="H16">
-        <v>7946938.7560000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>174</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>176</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20">
-        <v>0.68</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.6</v>
-      </c>
-      <c r="H20">
-        <v>8150945.2719999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>134</v>
-      </c>
       <c r="B30" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
       </c>
       <c r="D30" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="D31" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>262</v>
       </c>
       <c r="D32" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" t="s">
-        <v>97</v>
+        <v>263</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>165</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>265</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>264</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>260</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>266</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>265</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>261</v>
       </c>
       <c r="D35" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>266</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>259</v>
       </c>
       <c r="D36" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" t="s">
-        <v>164</v>
+        <v>169</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D39" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" t="s">
-        <v>41</v>
+        <v>101</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D44" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D47" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="D48" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D56" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>115</v>
+      </c>
+      <c r="B66" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>120</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>118</v>
       </c>
-      <c r="C49" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="B70" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" t="s">
+        <v>111</v>
+      </c>
+      <c r="C71" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D73" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" t="s">
         <v>121</v>
       </c>
-      <c r="B50" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="D74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" t="s">
         <v>122</v>
       </c>
-      <c r="B52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53" t="s">
-        <v>120</v>
-      </c>
-      <c r="C53" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>124</v>
-      </c>
-      <c r="B54" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>125</v>
-      </c>
-      <c r="B55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>128</v>
-      </c>
-      <c r="B56" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" t="s">
-        <v>123</v>
-      </c>
-      <c r="D56" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>128</v>
-      </c>
-      <c r="B57" t="s">
-        <v>124</v>
-      </c>
-      <c r="C57" t="s">
-        <v>125</v>
-      </c>
-      <c r="D57" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" t="s">
-        <v>126</v>
-      </c>
-      <c r="C58" t="s">
-        <v>127</v>
-      </c>
-      <c r="D58" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>32</v>
-      </c>
-      <c r="B59" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>138</v>
-      </c>
-      <c r="B60" t="s">
-        <v>31</v>
-      </c>
-      <c r="C60" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>160</v>
-      </c>
-      <c r="B61" t="s">
-        <v>31</v>
-      </c>
-      <c r="C61" t="s">
-        <v>53</v>
-      </c>
-      <c r="D61" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>129</v>
-      </c>
-      <c r="B62" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" t="s">
-        <v>167</v>
-      </c>
-      <c r="E62">
-        <v>0.12</v>
-      </c>
-      <c r="F62">
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>132</v>
+      </c>
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" t="s">
+        <v>47</v>
+      </c>
+      <c r="D77" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B78" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" t="s">
+        <v>270</v>
+      </c>
+      <c r="D78" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C79">
         <v>1</v>
       </c>
-      <c r="G62">
-        <v>0.7</v>
-      </c>
-      <c r="H62">
-        <v>1630189.054</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>130</v>
-      </c>
-      <c r="B63" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63" t="s">
-        <v>167</v>
-      </c>
-      <c r="E63">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>0.6</v>
-      </c>
-      <c r="H63">
-        <v>15216753.91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>131</v>
-      </c>
-      <c r="B64" t="s">
-        <v>103</v>
-      </c>
-      <c r="C64" t="s">
-        <v>59</v>
-      </c>
-      <c r="D64" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>132</v>
-      </c>
-      <c r="B65" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" t="s">
-        <v>130</v>
-      </c>
-      <c r="D65" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>132</v>
-      </c>
-      <c r="B66" t="s">
-        <v>131</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67" t="s">
-        <v>132</v>
-      </c>
-      <c r="C67" t="s">
-        <v>74</v>
-      </c>
-      <c r="D67" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>135</v>
-      </c>
-      <c r="B68" t="s">
-        <v>133</v>
-      </c>
-      <c r="C68" t="s">
-        <v>62</v>
-      </c>
-      <c r="D68" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>135</v>
-      </c>
-      <c r="B69" t="s">
-        <v>134</v>
-      </c>
-      <c r="C69" t="s">
-        <v>63</v>
-      </c>
-      <c r="D69" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>136</v>
-      </c>
-      <c r="B70" t="s">
-        <v>135</v>
-      </c>
-      <c r="C70" t="s">
-        <v>64</v>
-      </c>
-      <c r="D70" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>151</v>
-      </c>
-      <c r="B71" t="s">
-        <v>135</v>
-      </c>
-      <c r="C71" t="s">
-        <v>65</v>
-      </c>
-      <c r="D71" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>158</v>
-      </c>
-      <c r="B72" t="s">
-        <v>135</v>
-      </c>
-      <c r="C72" t="s">
-        <v>66</v>
-      </c>
-      <c r="D72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>137</v>
-      </c>
-      <c r="B73" t="s">
-        <v>104</v>
-      </c>
-      <c r="C73" t="s">
-        <v>72</v>
-      </c>
-      <c r="D73" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>141</v>
-      </c>
-      <c r="B74" t="s">
-        <v>136</v>
-      </c>
-      <c r="C74" t="s">
-        <v>137</v>
-      </c>
-      <c r="D74" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>139</v>
-      </c>
-      <c r="B75" t="s">
-        <v>43</v>
-      </c>
-      <c r="D75" t="s">
-        <v>167</v>
-      </c>
-      <c r="E75">
-        <v>0.22</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>0.7</v>
-      </c>
-      <c r="H75">
-        <v>1630189.054</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>142</v>
-      </c>
-      <c r="B76" t="s">
-        <v>44</v>
-      </c>
-      <c r="D76" t="s">
-        <v>167</v>
-      </c>
-      <c r="E76">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <v>0.6</v>
-      </c>
-      <c r="H76">
-        <v>15216753.91</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>140</v>
-      </c>
-      <c r="B77" t="s">
-        <v>134</v>
-      </c>
-      <c r="C77" t="s">
-        <v>60</v>
-      </c>
-      <c r="D77" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>149</v>
-      </c>
-      <c r="B78" t="s">
-        <v>133</v>
-      </c>
-      <c r="C78" t="s">
-        <v>61</v>
-      </c>
-      <c r="D78" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>157</v>
-      </c>
-      <c r="B79" t="s">
-        <v>138</v>
-      </c>
-      <c r="C79" t="s">
-        <v>67</v>
-      </c>
       <c r="D79" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>150</v>
-      </c>
-      <c r="B80" t="s">
-        <v>30</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="C80" t="s">
-        <v>52</v>
+        <v>268</v>
       </c>
       <c r="D80" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>145</v>
-      </c>
-      <c r="B81" t="s">
-        <v>139</v>
+      <c r="A81" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>273</v>
       </c>
       <c r="C81" t="s">
-        <v>56</v>
+        <v>269</v>
       </c>
       <c r="D81" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>146</v>
-      </c>
-      <c r="B82" t="s">
-        <v>140</v>
+        <v>123</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>274</v>
       </c>
       <c r="C82" t="s">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="D82" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>147</v>
+      <c r="A83" s="11" t="s">
+        <v>279</v>
       </c>
       <c r="B83" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="C83" t="s">
-        <v>69</v>
+        <v>278</v>
       </c>
       <c r="D83" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>148</v>
-      </c>
-      <c r="B84" t="s">
-        <v>132</v>
-      </c>
-      <c r="C84" t="s">
-        <v>75</v>
+      <c r="A84" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>164</v>
+        <v>242</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>144</v>
-      </c>
-      <c r="B85" t="s">
-        <v>142</v>
+      <c r="A85" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>280</v>
       </c>
       <c r="C85" t="s">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="D85" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>26</v>
-      </c>
-      <c r="B86" t="s">
-        <v>143</v>
+      <c r="A86" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>281</v>
       </c>
       <c r="C86" t="s">
-        <v>144</v>
+        <v>277</v>
       </c>
       <c r="D86" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>26</v>
-      </c>
-      <c r="B87" t="s">
-        <v>145</v>
+        <v>124</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>282</v>
       </c>
       <c r="C87" t="s">
-        <v>146</v>
+        <v>275</v>
       </c>
       <c r="D87" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="B88" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="C88" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="D88" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C89" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="D89" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="B90" t="s">
-        <v>150</v>
-      </c>
-      <c r="C90" t="s">
-        <v>77</v>
+        <v>125</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="B91" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
       </c>
       <c r="D91" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="B92" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="C92" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="D92" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="B93" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C93" t="s">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="D93" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="B94" t="s">
-        <v>156</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="C94" t="s">
+        <v>58</v>
       </c>
       <c r="D94" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="B95" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="C95" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="D95" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B96" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="C96" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D96" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="B97" t="s">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="D97" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="B98" t="s">
+        <v>130</v>
+      </c>
+      <c r="C98" t="s">
+        <v>131</v>
+      </c>
+      <c r="D98" t="s">
         <v>161</v>
       </c>
-      <c r="C98" t="s">
-        <v>162</v>
-      </c>
-      <c r="D98" t="s">
-        <v>168</v>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>287</v>
+      </c>
+      <c r="B99" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" t="s">
+        <v>286</v>
+      </c>
+      <c r="D99" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>288</v>
+      </c>
+      <c r="B100" t="s">
+        <v>287</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>289</v>
+      </c>
+      <c r="B101" t="s">
+        <v>288</v>
+      </c>
+      <c r="C101" t="s">
+        <v>284</v>
+      </c>
+      <c r="D101" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>290</v>
+      </c>
+      <c r="B102" t="s">
+        <v>289</v>
+      </c>
+      <c r="C102" t="s">
+        <v>285</v>
+      </c>
+      <c r="D102" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>133</v>
+      </c>
+      <c r="B103" t="s">
+        <v>290</v>
+      </c>
+      <c r="C103" t="s">
+        <v>283</v>
+      </c>
+      <c r="D103" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>295</v>
+      </c>
+      <c r="B104" t="s">
+        <v>38</v>
+      </c>
+      <c r="C104" t="s">
+        <v>294</v>
+      </c>
+      <c r="D104" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>296</v>
+      </c>
+      <c r="B105" t="s">
+        <v>295</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>297</v>
+      </c>
+      <c r="B106" t="s">
+        <v>296</v>
+      </c>
+      <c r="C106" t="s">
+        <v>292</v>
+      </c>
+      <c r="D106" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>298</v>
+      </c>
+      <c r="B107" t="s">
+        <v>297</v>
+      </c>
+      <c r="C107" t="s">
+        <v>293</v>
+      </c>
+      <c r="D107" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>136</v>
+      </c>
+      <c r="B108" t="s">
+        <v>298</v>
+      </c>
+      <c r="C108" t="s">
+        <v>291</v>
+      </c>
+      <c r="D108" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>134</v>
+      </c>
+      <c r="B109" t="s">
+        <v>128</v>
+      </c>
+      <c r="C109" t="s">
+        <v>54</v>
+      </c>
+      <c r="D109" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110" t="s">
+        <v>127</v>
+      </c>
+      <c r="C110" t="s">
+        <v>55</v>
+      </c>
+      <c r="D110" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>151</v>
+      </c>
+      <c r="B111" t="s">
+        <v>132</v>
+      </c>
+      <c r="C111" t="s">
+        <v>61</v>
+      </c>
+      <c r="D111" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>144</v>
+      </c>
+      <c r="B112" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" t="s">
+        <v>46</v>
+      </c>
+      <c r="D112" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>139</v>
+      </c>
+      <c r="B113" t="s">
+        <v>133</v>
+      </c>
+      <c r="C113" t="s">
+        <v>50</v>
+      </c>
+      <c r="D113" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>140</v>
+      </c>
+      <c r="B114" t="s">
+        <v>134</v>
+      </c>
+      <c r="C114" t="s">
+        <v>72</v>
+      </c>
+      <c r="D114" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>141</v>
+      </c>
+      <c r="B115" t="s">
+        <v>135</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>142</v>
+      </c>
+      <c r="B116" t="s">
+        <v>126</v>
+      </c>
+      <c r="C116" t="s">
+        <v>69</v>
+      </c>
+      <c r="D116" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>138</v>
+      </c>
+      <c r="B117" t="s">
+        <v>136</v>
+      </c>
+      <c r="C117" t="s">
+        <v>70</v>
+      </c>
+      <c r="D117" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>20</v>
+      </c>
+      <c r="B118" t="s">
+        <v>137</v>
+      </c>
+      <c r="C118" t="s">
+        <v>138</v>
+      </c>
+      <c r="D118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" t="s">
+        <v>139</v>
+      </c>
+      <c r="C119" t="s">
+        <v>140</v>
+      </c>
+      <c r="D119" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120" t="s">
+        <v>141</v>
+      </c>
+      <c r="C120" t="s">
+        <v>142</v>
+      </c>
+      <c r="D120" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>148</v>
+      </c>
+      <c r="B121" t="s">
+        <v>143</v>
+      </c>
+      <c r="C121" t="s">
+        <v>73</v>
+      </c>
+      <c r="D121" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>149</v>
+      </c>
+      <c r="B122" t="s">
+        <v>144</v>
+      </c>
+      <c r="C122" t="s">
+        <v>71</v>
+      </c>
+      <c r="D122" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>150</v>
+      </c>
+      <c r="B123" t="s">
+        <v>145</v>
+      </c>
+      <c r="C123" t="s">
+        <v>62</v>
+      </c>
+      <c r="D123" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" t="s">
+        <v>146</v>
+      </c>
+      <c r="C124" t="s">
+        <v>147</v>
+      </c>
+      <c r="D124" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>21</v>
+      </c>
+      <c r="B125" t="s">
+        <v>148</v>
+      </c>
+      <c r="C125" t="s">
+        <v>149</v>
+      </c>
+      <c r="D125" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>21</v>
+      </c>
+      <c r="B126" t="s">
+        <v>150</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>155</v>
+      </c>
+      <c r="B127" t="s">
+        <v>151</v>
+      </c>
+      <c r="C127" t="s">
+        <v>74</v>
+      </c>
+      <c r="D127" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>156</v>
+      </c>
+      <c r="B128" t="s">
+        <v>152</v>
+      </c>
+      <c r="C128" t="s">
+        <v>64</v>
+      </c>
+      <c r="D128" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>22</v>
+      </c>
+      <c r="B129" t="s">
+        <v>153</v>
+      </c>
+      <c r="C129" t="s">
+        <v>154</v>
+      </c>
+      <c r="D129" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>22</v>
+      </c>
+      <c r="B130" t="s">
+        <v>155</v>
+      </c>
+      <c r="C130" t="s">
+        <v>156</v>
+      </c>
+      <c r="D130" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H98" xr:uid="{45498073-CC56-2D41-B5D6-3D03F1233978}"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4337,12 +5134,12 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4350,7 +5147,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1</v>

--- a/src/vlinder/data/Refugee/xlsx/Refugee.xlsx
+++ b/src/vlinder/data/Refugee/xlsx/Refugee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/Tooling/vlinder/trbs/src/vlinder/data/Refugee/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pwceur.sharepoint.com/teams/NL-ADV-2023Nyenrodecolleges-DataScienceforresponsibleleaders/Shared Documents/General/Assignment/Assignment 2025/Demo cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0A7D9D-83E6-C446-A030-CB48B0018DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{2F0A7D9D-83E6-C446-A030-CB48B0018DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21EF842E-F58C-E94C-994C-B54E45C3E96A}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="760" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
+    <workbookView xWindow="5520" yWindow="760" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="3" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">dependencies!$A$1:$H$130</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">fixed_inputs!$A$1:$B$46</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,6 +58,195 @@
     <t>value</t>
   </si>
   <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>generic_text_element</t>
+  </si>
+  <si>
+    <t>title_strategic_challenge</t>
+  </si>
+  <si>
+    <t>Strategic challenge</t>
+  </si>
+  <si>
+    <t>title_key_outputs</t>
+  </si>
+  <si>
+    <t>Key outputs</t>
+  </si>
+  <si>
+    <t>title_dmo</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>title_scenarios</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>title_comparison_dmo</t>
+  </si>
+  <si>
+    <t>Strategic priorities</t>
+  </si>
+  <si>
+    <t>title_comparison_scenario</t>
+  </si>
+  <si>
+    <t>Risk appetite</t>
+  </si>
+  <si>
+    <t>title_fixed_inputs</t>
+  </si>
+  <si>
+    <t>Fixed inputs</t>
+  </si>
+  <si>
+    <t>title_dependency_graph</t>
+  </si>
+  <si>
+    <t>Dependency graph</t>
+  </si>
+  <si>
+    <t>title_weighted_graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resulting appreciations of different DMOs for scenario: </t>
+  </si>
+  <si>
+    <t>text_strategic_challenge</t>
+  </si>
+  <si>
+    <t>The strategic challenge that requires a decision</t>
+  </si>
+  <si>
+    <t>text_key_outputs</t>
+  </si>
+  <si>
+    <t>The indicators used to evaluate the impact of your decision</t>
+  </si>
+  <si>
+    <t>text_dmo</t>
+  </si>
+  <si>
+    <t>The options you have to influence your impact</t>
+  </si>
+  <si>
+    <t>text_scenarios</t>
+  </si>
+  <si>
+    <t>The uncertainty you want to account for</t>
+  </si>
+  <si>
+    <t>text_comparison_dmo</t>
+  </si>
+  <si>
+    <t>Evaluate options by assessing strategic priorities</t>
+  </si>
+  <si>
+    <t>text_comparison_scenario</t>
+  </si>
+  <si>
+    <t>Evaluate options by assessing risk appetite</t>
+  </si>
+  <si>
+    <t>intro_key_outputs</t>
+  </si>
+  <si>
+    <t>The outputs upon which the decision makers will base their decision. Key outputs are often referred to as KPIs. Key outputs are grouped into themes.</t>
+  </si>
+  <si>
+    <t>intro_decision_makers_options</t>
+  </si>
+  <si>
+    <t>Decision makers options are formulated by assigning a single value to all internal variable inputs. These inputs can be formulated and determined by the decision makers.</t>
+  </si>
+  <si>
+    <t>intro_scenarios</t>
+  </si>
+  <si>
+    <t>Each external variable input can be thought of as a single aspect of external uncertainty affecting the outcome of the decision in scope. A scenario is defined by assigning a single value to all external variable inputs.</t>
+  </si>
+  <si>
+    <t>intro_fixed_inputs</t>
+  </si>
+  <si>
+    <t>The inputs which only takes one value for all scenarios.</t>
+  </si>
+  <si>
+    <t>intro_dependency_graph</t>
+  </si>
+  <si>
+    <t>intro_weighted_graph</t>
+  </si>
+  <si>
+    <t>header_theme</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>header_key_outputs</t>
+  </si>
+  <si>
+    <t>Key output</t>
+  </si>
+  <si>
+    <t>graph_title_dmo</t>
+  </si>
+  <si>
+    <t>Appreciations per option for scenario</t>
+  </si>
+  <si>
+    <t>graph_y_label_dmo</t>
+  </si>
+  <si>
+    <t>Appreciation</t>
+  </si>
+  <si>
+    <t>graph_text_dmo</t>
+  </si>
+  <si>
+    <t>The chart below shows the weighted appreciations per option, where key outputs are grouped into themes. The used theme weights are displayed in the pie chart on the right, showing the relative weights of all key outputs belonging to that theme. Use the dropdown menu to navigate through the various scenarios.</t>
+  </si>
+  <si>
+    <t>table_text_dmo</t>
+  </si>
+  <si>
+    <t>The table below shows the key output values per option, based on the selected scenario. The option with the highest weighted appreciation is highlighted.</t>
+  </si>
+  <si>
+    <t>graph_text_scenarios</t>
+  </si>
+  <si>
+    <t>The chart below shows the weighted appreciations per option, grouped into scenarios. The used scenario weights are displayed in the pie chart on the right.</t>
+  </si>
+  <si>
+    <t>graph_title_scenarios</t>
+  </si>
+  <si>
+    <t>Appreciations per scenario</t>
+  </si>
+  <si>
+    <t>graph_y_label_scenarios</t>
+  </si>
+  <si>
+    <t>case_text_element</t>
+  </si>
+  <si>
+    <t>strategic_challenge</t>
+  </si>
+  <si>
+    <t>The International Organisation for Migration (2016) counted 1,011,712 migrants and refugees that crossed the southern border of the European Union in 2015, which some have dubbed a ‘refugee crisis’. A distinction can be made between refugees and economic migrants. Economic migrants are, contrary to refugees, not forced to leave their country because of war or another humanitarian crisis, but move from their own country to a new country in order to find work or have a better standard of living. Europe currently has to cope with both. A (temporary) residence permit that grants asylum is generally only awarded to refugees. This permit is a ticket for integration in society, for work and education. The strategic challenge we face is determining how to accommodate refugees effectively.</t>
+  </si>
+  <si>
     <t>key_output</t>
   </si>
   <si>
@@ -82,21 +271,336 @@
     <t>end</t>
   </si>
   <si>
+    <t>Quality of life Ukrainians</t>
+  </si>
+  <si>
+    <t>Society</t>
+  </si>
+  <si>
+    <t>Quality of life other refugees</t>
+  </si>
+  <si>
+    <t>Quality of life inhabitants</t>
+  </si>
+  <si>
+    <t>Unemployment reduction Ukrainians</t>
+  </si>
+  <si>
+    <t>Unemployment reduction other refugees</t>
+  </si>
+  <si>
+    <t>Unemployment reduction inhabitants</t>
+  </si>
+  <si>
+    <t>Economic impact</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
     <t>internal_variable_input</t>
   </si>
   <si>
     <t>decision_makers_option</t>
   </si>
   <si>
+    <t>Language and integration course</t>
+  </si>
+  <si>
+    <t>Employment &amp; Education</t>
+  </si>
+  <si>
+    <t>Sports and association</t>
+  </si>
+  <si>
+    <t>Employment</t>
+  </si>
+  <si>
+    <t>Access to transport</t>
+  </si>
+  <si>
+    <t>Education after 18</t>
+  </si>
+  <si>
+    <t>Employment &amp; Language</t>
+  </si>
+  <si>
+    <t>Sports &amp; Language</t>
+  </si>
+  <si>
+    <t>Mix all interventions</t>
+  </si>
+  <si>
+    <t>Employment &amp; Sports</t>
+  </si>
+  <si>
     <t>external_variable_input</t>
   </si>
   <si>
     <t>scenario</t>
   </si>
   <si>
+    <t>Min. investment in language and integration for full employment effect</t>
+  </si>
+  <si>
+    <t>Base case</t>
+  </si>
+  <si>
+    <t>Labour optimistic</t>
+  </si>
+  <si>
+    <t>Labour pessimistic</t>
+  </si>
+  <si>
+    <t>Reduction employment effect</t>
+  </si>
+  <si>
+    <t>Yearly salary education after 18</t>
+  </si>
+  <si>
+    <t>Yearly salary sports and associations</t>
+  </si>
+  <si>
+    <t>Yearly salary language and integration</t>
+  </si>
+  <si>
+    <t>Yearly salary employment creating and matching</t>
+  </si>
+  <si>
     <t>fixed_input</t>
   </si>
   <si>
+    <t>Effect of unemployment reduction other refugees on income other refugees</t>
+  </si>
+  <si>
+    <t>Effect of unemployment reduction Ukrainians on income Ukrainians</t>
+  </si>
+  <si>
+    <t>Effect of unemployment reduction inhabitants on income inhabitants</t>
+  </si>
+  <si>
+    <t>Effect of unemployment reduction other refugees on social trust other refugees</t>
+  </si>
+  <si>
+    <t>Effect of unemployment reduction inhabitants on QoL inhabitants</t>
+  </si>
+  <si>
+    <t>Effect of unemployment reduction other refugees on QoL other refugees</t>
+  </si>
+  <si>
+    <t>Effect of unemployment reduction Ukrainians on QoL Ukrainians</t>
+  </si>
+  <si>
+    <t>Effect of health Ukrainians on quality of life Ukrainians</t>
+  </si>
+  <si>
+    <t>Effect of language acquisition Ukrainians on income Ukrainians</t>
+  </si>
+  <si>
+    <t>Effect of language acquisition Ukrainians on unemployment reduction Ukrainians</t>
+  </si>
+  <si>
+    <t>Effect of language acquisition Ukrainians on social cohesion Ukrainians</t>
+  </si>
+  <si>
+    <t>Effect of income Ukrainians on financial security Ukrainians</t>
+  </si>
+  <si>
+    <t>Effect of income other refugees on financial security other refugees</t>
+  </si>
+  <si>
+    <t>Effect of income other refugees on crime rate</t>
+  </si>
+  <si>
+    <t>Effect of income Ukrainians on crime rate</t>
+  </si>
+  <si>
+    <t>Effect of crime rate on personal safety Ukrainians</t>
+  </si>
+  <si>
+    <t>Effect of crime rate on personal safety other refugees</t>
+  </si>
+  <si>
+    <t>Effect of crime rate on personal safety inhabitants</t>
+  </si>
+  <si>
+    <t>Effect of income inhabitants on financial security inhabitants</t>
+  </si>
+  <si>
+    <t>Effect of personal safety other refugees on quality of life other refugees</t>
+  </si>
+  <si>
+    <t>Effect of personal safety Ukrainians on quality of life Ukrainians</t>
+  </si>
+  <si>
+    <t>Effect of personal safety inhabitants on quality of life inhabitants</t>
+  </si>
+  <si>
+    <t>Effect of tertiary education completed Ukrainians on income Ukrainians</t>
+  </si>
+  <si>
+    <t>Effect of tertiary education completed Ukrainians on personal safety Ukrainians</t>
+  </si>
+  <si>
+    <t>Effect of tertiary education completed Ukrainians on unemployment reduction Ukrainians</t>
+  </si>
+  <si>
+    <t>Effect of social cohesion Ukrainians on crime rate reduction</t>
+  </si>
+  <si>
+    <t>Effect of social cohesion Ukrainians on quality of life Ukrainians</t>
+  </si>
+  <si>
+    <t>Effect of social participation Ukrainians on quality of life Ukrainians</t>
+  </si>
+  <si>
+    <t>Effect of social trust other refugees on quality of life other refugees</t>
+  </si>
+  <si>
+    <t>Effect of financial security Ukrainians on quality of life Ukrainians</t>
+  </si>
+  <si>
+    <t>Effect of financial security other refugees on quality of life other refugees</t>
+  </si>
+  <si>
+    <t>Effect of financial security inhabitants on quality of life inhabitants</t>
+  </si>
+  <si>
+    <t>Effect intervention on jealousy</t>
+  </si>
+  <si>
+    <t>Effect of jealousy on QoL on quality of life other refugees</t>
+  </si>
+  <si>
+    <t>Effect of jealousy on QoL on quality of life inhabitants</t>
+  </si>
+  <si>
+    <t>Average yearly salary Ukrainians</t>
+  </si>
+  <si>
+    <t>Effect of additional jobs on number of additional jobs Ukrainians</t>
+  </si>
+  <si>
+    <t>Effect of additional jobs on number of additional jobs other refugees</t>
+  </si>
+  <si>
+    <t>Effect of additional jobs on number of additional jobs inhabitants</t>
+  </si>
+  <si>
+    <t>Number of other refugees workforce</t>
+  </si>
+  <si>
+    <t>Number of inhabitants workforce</t>
+  </si>
+  <si>
+    <t>Number of Ukrainian refugees workforce</t>
+  </si>
+  <si>
+    <t>Social benefits Ukrainian refugees</t>
+  </si>
+  <si>
+    <t>Social benefits other refugees</t>
+  </si>
+  <si>
+    <t>Social benefits inhabitants</t>
+  </si>
+  <si>
+    <t>TECU_me</t>
+  </si>
+  <si>
+    <t>TECU_acc</t>
+  </si>
+  <si>
+    <t>TECU_pos</t>
+  </si>
+  <si>
+    <t>TECU_sp</t>
+  </si>
+  <si>
+    <t>LAUS_me</t>
+  </si>
+  <si>
+    <t>LAUS_acc</t>
+  </si>
+  <si>
+    <t>LAUS_pos</t>
+  </si>
+  <si>
+    <t>LAUS_sp</t>
+  </si>
+  <si>
+    <t>LAUI_me</t>
+  </si>
+  <si>
+    <t>LAUI_acc</t>
+  </si>
+  <si>
+    <t>LAUI_pos</t>
+  </si>
+  <si>
+    <t>LAUI_sp</t>
+  </si>
+  <si>
+    <t>URUE_me</t>
+  </si>
+  <si>
+    <t>URUE_acc</t>
+  </si>
+  <si>
+    <t>URUE_pos</t>
+  </si>
+  <si>
+    <t>URUE_sp</t>
+  </si>
+  <si>
+    <t>SCUS_me</t>
+  </si>
+  <si>
+    <t>SCUS_acc</t>
+  </si>
+  <si>
+    <t>SCUS_pos</t>
+  </si>
+  <si>
+    <t>SCUS_sp</t>
+  </si>
+  <si>
+    <t>SCUT_me</t>
+  </si>
+  <si>
+    <t>SCUT_acc</t>
+  </si>
+  <si>
+    <t>SCUT_pos</t>
+  </si>
+  <si>
+    <t>SCUT_sp</t>
+  </si>
+  <si>
+    <t>HUSA_me</t>
+  </si>
+  <si>
+    <t>HUSA_acc</t>
+  </si>
+  <si>
+    <t>HUSA_pos</t>
+  </si>
+  <si>
+    <t>HUSA_sp</t>
+  </si>
+  <si>
+    <t>SPUAT_me</t>
+  </si>
+  <si>
+    <t>SPUAT_acc</t>
+  </si>
+  <si>
+    <t>SPUAT_pos</t>
+  </si>
+  <si>
+    <t>SPUAT_sp</t>
+  </si>
+  <si>
     <t>destination</t>
   </si>
   <si>
@@ -109,844 +613,340 @@
     <t>operator</t>
   </si>
   <si>
+    <t>TECU_1</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>TECU_2</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>TECU_3</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>TECU_4</t>
+  </si>
+  <si>
+    <t>Tertiary education completed Ukrainians</t>
+  </si>
+  <si>
+    <t>Sports and association exists</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>Language and integration course exists</t>
+  </si>
+  <si>
+    <t>Employment exists</t>
+  </si>
+  <si>
+    <t>Education exists</t>
+  </si>
+  <si>
+    <t>Access to transport exists</t>
+  </si>
+  <si>
+    <t>Check for interventions</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Jealousy effect</t>
+  </si>
+  <si>
+    <t>Jealousy effect Interventions</t>
+  </si>
+  <si>
+    <t>Quality of life other refugees Interventions</t>
+  </si>
+  <si>
+    <t>Quality of life inhabitants Interventions</t>
+  </si>
+  <si>
+    <t>LAUS_1</t>
+  </si>
+  <si>
+    <t>LAUS_2</t>
+  </si>
+  <si>
+    <t>LAUS_3</t>
+  </si>
+  <si>
+    <t>LAUS_4</t>
+  </si>
+  <si>
+    <t>Language acquisition Ukrainians Sports</t>
+  </si>
+  <si>
+    <t>LAUI_1</t>
+  </si>
+  <si>
+    <t>LAUI_2</t>
+  </si>
+  <si>
+    <t>LAUI_3</t>
+  </si>
+  <si>
+    <t>LAUI_4</t>
+  </si>
+  <si>
+    <t>Language acquisition Ukrainians Integration</t>
+  </si>
+  <si>
+    <t>Language acquisition Ukrainians</t>
+  </si>
+  <si>
+    <t>Employment effect reduced</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>Reduction employment effect conditional</t>
+  </si>
+  <si>
+    <t>URUE_1</t>
+  </si>
+  <si>
+    <t>URUE_2</t>
+  </si>
+  <si>
+    <t>URUE_3</t>
+  </si>
+  <si>
+    <t>URUE_4</t>
+  </si>
+  <si>
+    <t>Unemployment reduction Ukrainians Employment</t>
+  </si>
+  <si>
+    <t>-*</t>
+  </si>
+  <si>
+    <t>Unemployment reduction Ukrainians Language Acq</t>
+  </si>
+  <si>
+    <t>Unemployment reduction Ukrainians Education Compl</t>
+  </si>
+  <si>
+    <t>Umployment reduction Ukrainians Interventions</t>
+  </si>
+  <si>
+    <t>Increase in income Ukrainians Employment</t>
+  </si>
+  <si>
+    <t>Increase in income Ukrainians Language Acq</t>
+  </si>
+  <si>
+    <t>Increase in income Ukrainians Education Compl</t>
+  </si>
+  <si>
+    <t>Increase in income Ukrainians</t>
+  </si>
+  <si>
+    <t>Number of additional jobs Sports</t>
+  </si>
+  <si>
+    <t>Number of additional jobs Integration</t>
+  </si>
+  <si>
+    <t>Number of additional jobs Employment</t>
+  </si>
+  <si>
+    <t>Number of additional jobs Education</t>
+  </si>
+  <si>
+    <t>Number of additional jobs</t>
+  </si>
+  <si>
+    <t>Number of additional jobs Ukrainians</t>
+  </si>
+  <si>
+    <t>Number of additional jobs other refugees</t>
+  </si>
+  <si>
+    <t>Number of additional jobs inhabitants</t>
+  </si>
+  <si>
+    <t>Economic impact Investing</t>
+  </si>
+  <si>
+    <t>Increase in income other refugees</t>
+  </si>
+  <si>
+    <t>Quality of life other refugees Unemployment reduction</t>
+  </si>
+  <si>
+    <t>Quality of life Ukrainians Unemployment reduction</t>
+  </si>
+  <si>
+    <t>Change in number of employed Ukrainian refugees</t>
+  </si>
+  <si>
+    <t>Economic impact Ukrainians</t>
+  </si>
+  <si>
+    <t>Economic impact Employment</t>
+  </si>
+  <si>
+    <t>Economic impact social benefits Ukr 1</t>
+  </si>
+  <si>
+    <t>Economic impact social benefits Ukr 2</t>
+  </si>
+  <si>
+    <t>Economic impact social benefits Other refugees</t>
+  </si>
+  <si>
+    <t>Economic impact social benefits Inhabitants</t>
+  </si>
+  <si>
+    <t>Economic impact Social benefits</t>
+  </si>
+  <si>
+    <t>Increase in income inhabitants</t>
+  </si>
+  <si>
+    <t>Quality of life inhabitants Unemployment reduction</t>
+  </si>
+  <si>
+    <t>SCUS_1</t>
+  </si>
+  <si>
+    <t>SCUS_2</t>
+  </si>
+  <si>
+    <t>SCUS_3</t>
+  </si>
+  <si>
+    <t>SCUS_4</t>
+  </si>
+  <si>
+    <t>Social cohesion Ukrainians Sports</t>
+  </si>
+  <si>
+    <t>SCUT_1</t>
+  </si>
+  <si>
+    <t>SCUT_2</t>
+  </si>
+  <si>
+    <t>SCUT_3</t>
+  </si>
+  <si>
+    <t>SCUT_4</t>
+  </si>
+  <si>
+    <t>Social cohesion Ukrainians Transport</t>
+  </si>
+  <si>
+    <t>Social cohesion Ukrainians Language Acq</t>
+  </si>
+  <si>
+    <t>Social cohesion Ukrainians</t>
+  </si>
+  <si>
+    <t>Crime rate reduction</t>
+  </si>
+  <si>
+    <t>Personal safety Ukrainians Crime rate</t>
+  </si>
+  <si>
+    <t>Personal safety other refugees</t>
+  </si>
+  <si>
+    <t>Personal safety inhabitants</t>
+  </si>
+  <si>
+    <t>Personal safety Ukrainians Education</t>
+  </si>
+  <si>
+    <t>Personal safety Ukrainians</t>
+  </si>
+  <si>
+    <t>HUSA_1</t>
+  </si>
+  <si>
+    <t>HUSA_2</t>
+  </si>
+  <si>
+    <t>HUSA_3</t>
+  </si>
+  <si>
+    <t>HUSA_4</t>
+  </si>
+  <si>
+    <t>Health Ukrainians</t>
+  </si>
+  <si>
+    <t>SPUAT_1</t>
+  </si>
+  <si>
+    <t>SPUAT_2</t>
+  </si>
+  <si>
+    <t>SPUAT_3</t>
+  </si>
+  <si>
+    <t>SPUAT_4</t>
+  </si>
+  <si>
+    <t>Social participation Ukrainians</t>
+  </si>
+  <si>
+    <t>Financial security Ukrainians</t>
+  </si>
+  <si>
+    <t>Financial security other refugees</t>
+  </si>
+  <si>
+    <t>Financial security inhabitants</t>
+  </si>
+  <si>
+    <t>Social trust other refugees</t>
+  </si>
+  <si>
+    <t>Quality of life Ukrainians Health</t>
+  </si>
+  <si>
+    <t>Quality of life Ukrainians Financial security</t>
+  </si>
+  <si>
+    <t>Quality of life Ukrainians Personal safety</t>
+  </si>
+  <si>
+    <t>Quality of life Ukrainians Social cohesion</t>
+  </si>
+  <si>
+    <t>Quality of life Ukrainians Social participation</t>
+  </si>
+  <si>
+    <t>Quality of life other refugees Financial security</t>
+  </si>
+  <si>
+    <t>Quality of life other refugees Social trust</t>
+  </si>
+  <si>
+    <t>Quality of life other refugees Personal safety</t>
+  </si>
+  <si>
+    <t>Quality of life inhabitants Financial security</t>
+  </si>
+  <si>
+    <t>Quality of life inhabitants Personal safety</t>
+  </si>
+  <si>
     <t>weight</t>
-  </si>
-  <si>
-    <t>Quality of life Ukrainians</t>
-  </si>
-  <si>
-    <t>Quality of life other refugees</t>
-  </si>
-  <si>
-    <t>Quality of life inhabitants</t>
-  </si>
-  <si>
-    <t>Unemployment reduction Ukrainians</t>
-  </si>
-  <si>
-    <t>Unemployment reduction other refugees</t>
-  </si>
-  <si>
-    <t>Unemployment reduction inhabitants</t>
-  </si>
-  <si>
-    <t>Economic impact</t>
-  </si>
-  <si>
-    <t>Society</t>
-  </si>
-  <si>
-    <t>Economy</t>
-  </si>
-  <si>
-    <t>Mix all interventions</t>
-  </si>
-  <si>
-    <t>Employment &amp; Language</t>
-  </si>
-  <si>
-    <t>Employment &amp; Education</t>
-  </si>
-  <si>
-    <t>Sports &amp; Language</t>
-  </si>
-  <si>
-    <t>Employment &amp; Sports</t>
-  </si>
-  <si>
-    <t>Employment</t>
-  </si>
-  <si>
-    <t>Education after 18</t>
-  </si>
-  <si>
-    <t>Language and integration course</t>
-  </si>
-  <si>
-    <t>Sports and association</t>
-  </si>
-  <si>
-    <t>Access to transport</t>
-  </si>
-  <si>
-    <t>Min. investment in language and integration for full employment effect</t>
-  </si>
-  <si>
-    <t>Reduction employment effect</t>
-  </si>
-  <si>
-    <t>Labour optimistic</t>
-  </si>
-  <si>
-    <t>Labour pessimistic</t>
-  </si>
-  <si>
-    <t>Effect of unemployment reduction other refugees on income other refugees</t>
-  </si>
-  <si>
-    <t>Effect of unemployment reduction Ukrainians on income Ukrainians</t>
-  </si>
-  <si>
-    <t>Effect of unemployment reduction inhabitants on income inhabitants</t>
-  </si>
-  <si>
-    <t>Effect of unemployment reduction other refugees on social trust other refugees</t>
-  </si>
-  <si>
-    <t>Effect of unemployment reduction inhabitants on QoL inhabitants</t>
-  </si>
-  <si>
-    <t>Effect of unemployment reduction other refugees on QoL other refugees</t>
-  </si>
-  <si>
-    <t>Effect of unemployment reduction Ukrainians on QoL Ukrainians</t>
-  </si>
-  <si>
-    <t>Effect of health Ukrainians on quality of life Ukrainians</t>
-  </si>
-  <si>
-    <t>Effect of language acquisition Ukrainians on income Ukrainians</t>
-  </si>
-  <si>
-    <t>Effect of language acquisition Ukrainians on unemployment reduction Ukrainians</t>
-  </si>
-  <si>
-    <t>Effect of language acquisition Ukrainians on social cohesion Ukrainians</t>
-  </si>
-  <si>
-    <t>Effect of income Ukrainians on financial security Ukrainians</t>
-  </si>
-  <si>
-    <t>Effect of income other refugees on financial security other refugees</t>
-  </si>
-  <si>
-    <t>Effect of income other refugees on crime rate</t>
-  </si>
-  <si>
-    <t>Effect of income Ukrainians on crime rate</t>
-  </si>
-  <si>
-    <t>Effect of crime rate on personal safety Ukrainians</t>
-  </si>
-  <si>
-    <t>Effect of crime rate on personal safety other refugees</t>
-  </si>
-  <si>
-    <t>Effect of crime rate on personal safety inhabitants</t>
-  </si>
-  <si>
-    <t>Effect of income inhabitants on financial security inhabitants</t>
-  </si>
-  <si>
-    <t>Effect of personal safety other refugees on quality of life other refugees</t>
-  </si>
-  <si>
-    <t>Effect of personal safety Ukrainians on quality of life Ukrainians</t>
-  </si>
-  <si>
-    <t>Effect of personal safety inhabitants on quality of life inhabitants</t>
-  </si>
-  <si>
-    <t>Effect of tertiary education completed Ukrainians on income Ukrainians</t>
-  </si>
-  <si>
-    <t>Effect of tertiary education completed Ukrainians on personal safety Ukrainians</t>
-  </si>
-  <si>
-    <t>Effect of tertiary education completed Ukrainians on unemployment reduction Ukrainians</t>
-  </si>
-  <si>
-    <t>Effect of social cohesion Ukrainians on crime rate reduction</t>
-  </si>
-  <si>
-    <t>Effect of social cohesion Ukrainians on quality of life Ukrainians</t>
-  </si>
-  <si>
-    <t>Effect of social participation Ukrainians on quality of life Ukrainians</t>
-  </si>
-  <si>
-    <t>Effect of social trust other refugees on quality of life other refugees</t>
-  </si>
-  <si>
-    <t>Effect of financial security Ukrainians on quality of life Ukrainians</t>
-  </si>
-  <si>
-    <t>Effect of financial security other refugees on quality of life other refugees</t>
-  </si>
-  <si>
-    <t>Effect of financial security inhabitants on quality of life inhabitants</t>
-  </si>
-  <si>
-    <t>Effect intervention on jealousy</t>
-  </si>
-  <si>
-    <t>Effect of jealousy on QoL on quality of life other refugees</t>
-  </si>
-  <si>
-    <t>Effect of jealousy on QoL on quality of life inhabitants</t>
-  </si>
-  <si>
-    <t>Average yearly salary Ukrainians</t>
-  </si>
-  <si>
-    <t>Effect of additional jobs on number of additional jobs Ukrainians</t>
-  </si>
-  <si>
-    <t>Effect of additional jobs on number of additional jobs other refugees</t>
-  </si>
-  <si>
-    <t>Effect of additional jobs on number of additional jobs inhabitants</t>
-  </si>
-  <si>
-    <t>Number of other refugees workforce</t>
-  </si>
-  <si>
-    <t>Number of inhabitants workforce</t>
-  </si>
-  <si>
-    <t>Number of Ukrainian refugees workforce</t>
-  </si>
-  <si>
-    <t>Social benefits Ukrainian refugees</t>
-  </si>
-  <si>
-    <t>Social benefits other refugees</t>
-  </si>
-  <si>
-    <t>Social benefits inhabitants</t>
-  </si>
-  <si>
-    <t>Yearly salary education after 18</t>
-  </si>
-  <si>
-    <t>Yearly salary sports and associations</t>
-  </si>
-  <si>
-    <t>Yearly salary language and integration</t>
-  </si>
-  <si>
-    <t>Yearly salary employment creating and matching</t>
-  </si>
-  <si>
-    <t>Check for interventions</t>
-  </si>
-  <si>
-    <t>Jealousy effect</t>
-  </si>
-  <si>
-    <t>Jealousy effect Interventions</t>
-  </si>
-  <si>
-    <t>Language acquisition Ukrainians Sports</t>
-  </si>
-  <si>
-    <t>Language acquisition Ukrainians Integration</t>
-  </si>
-  <si>
-    <t>Language acquisition Ukrainians</t>
-  </si>
-  <si>
-    <t>Tertiary education completed Ukrainians</t>
-  </si>
-  <si>
-    <t>Unemployment reduction Ukrainians Employment</t>
-  </si>
-  <si>
-    <t>Unemployment reduction Ukrainians Language Acq</t>
-  </si>
-  <si>
-    <t>Unemployment reduction Ukrainians Education Compl</t>
-  </si>
-  <si>
-    <t>Increase in income Ukrainians Employment</t>
-  </si>
-  <si>
-    <t>Increase in income Ukrainians Language Acq</t>
-  </si>
-  <si>
-    <t>Increase in income Ukrainians Education Compl</t>
-  </si>
-  <si>
-    <t>Number of additional jobs Sports</t>
-  </si>
-  <si>
-    <t>Number of additional jobs Integration</t>
-  </si>
-  <si>
-    <t>Number of additional jobs Employment</t>
-  </si>
-  <si>
-    <t>Number of additional jobs Education</t>
-  </si>
-  <si>
-    <t>Number of additional jobs</t>
-  </si>
-  <si>
-    <t>Number of additional jobs other refugees</t>
-  </si>
-  <si>
-    <t>Number of additional jobs inhabitants</t>
-  </si>
-  <si>
-    <t>Umployment reduction Ukrainians Interventions</t>
-  </si>
-  <si>
-    <t>Number of additional jobs Ukrainians</t>
-  </si>
-  <si>
-    <t>Change in number of employed Ukrainian refugees</t>
-  </si>
-  <si>
-    <t>Economic impact Ukrainians</t>
-  </si>
-  <si>
-    <t>Economic impact social benefits Ukr 1</t>
-  </si>
-  <si>
-    <t>Economic impact social benefits Ukr 2</t>
-  </si>
-  <si>
-    <t>Economic impact social benefits Other refugees</t>
-  </si>
-  <si>
-    <t>Economic impact social benefits Inhabitants</t>
-  </si>
-  <si>
-    <t>Economic impact Employment</t>
-  </si>
-  <si>
-    <t>Economic impact Investing</t>
-  </si>
-  <si>
-    <t>Economic impact Social benefits</t>
-  </si>
-  <si>
-    <t>Social cohesion Ukrainians Sports</t>
-  </si>
-  <si>
-    <t>Social cohesion Ukrainians Transport</t>
-  </si>
-  <si>
-    <t>Social cohesion Ukrainians Language Acq</t>
-  </si>
-  <si>
-    <t>Social cohesion Ukrainians</t>
-  </si>
-  <si>
-    <t>Increase in income other refugees</t>
-  </si>
-  <si>
-    <t>Increase in income Ukrainians</t>
-  </si>
-  <si>
-    <t>Crime rate reduction</t>
-  </si>
-  <si>
-    <t>Personal safety Ukrainians Crime rate</t>
-  </si>
-  <si>
-    <t>Personal safety Ukrainians Education</t>
-  </si>
-  <si>
-    <t>Increase in income inhabitants</t>
-  </si>
-  <si>
-    <t>Health Ukrainians</t>
-  </si>
-  <si>
-    <t>Financial security Ukrainians</t>
-  </si>
-  <si>
-    <t>Personal safety Ukrainians</t>
-  </si>
-  <si>
-    <t>Social participation Ukrainians</t>
-  </si>
-  <si>
-    <t>Quality of life Ukrainians Unemployment reduction</t>
-  </si>
-  <si>
-    <t>Quality of life Ukrainians Social participation</t>
-  </si>
-  <si>
-    <t>Quality of life Ukrainians Health</t>
-  </si>
-  <si>
-    <t>Quality of life Ukrainians Financial security</t>
-  </si>
-  <si>
-    <t>Quality of life Ukrainians Personal safety</t>
-  </si>
-  <si>
-    <t>Quality of life Ukrainians Social cohesion</t>
-  </si>
-  <si>
-    <t>Financial security other refugees</t>
-  </si>
-  <si>
-    <t>Social trust other refugees</t>
-  </si>
-  <si>
-    <t>Personal safety other refugees</t>
-  </si>
-  <si>
-    <t>Quality of life other refugees Interventions</t>
-  </si>
-  <si>
-    <t>Quality of life other refugees Unemployment reduction</t>
-  </si>
-  <si>
-    <t>Quality of life other refugees Financial security</t>
-  </si>
-  <si>
-    <t>Quality of life other refugees Social trust</t>
-  </si>
-  <si>
-    <t>Quality of life other refugees Personal safety</t>
-  </si>
-  <si>
-    <t>Financial security inhabitants</t>
-  </si>
-  <si>
-    <t>Personal safety inhabitants</t>
-  </si>
-  <si>
-    <t>Quality of life inhabitants Interventions</t>
-  </si>
-  <si>
-    <t>Quality of life inhabitants Unemployment reduction</t>
-  </si>
-  <si>
-    <t>Quality of life inhabitants Financial security</t>
-  </si>
-  <si>
-    <t>Quality of life inhabitants Personal safety</t>
-  </si>
-  <si>
-    <t>&gt;</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>Base case</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>Sports and association exists</t>
-  </si>
-  <si>
-    <t>Language and integration course exists</t>
-  </si>
-  <si>
-    <t>Employment exists</t>
-  </si>
-  <si>
-    <t>Education exists</t>
-  </si>
-  <si>
-    <t>Access to transport exists</t>
-  </si>
-  <si>
-    <t>Employment effect reduced</t>
-  </si>
-  <si>
-    <t>&lt;=</t>
-  </si>
-  <si>
-    <t>Reduction employment effect conditional</t>
-  </si>
-  <si>
-    <t>-*</t>
-  </si>
-  <si>
-    <t>generic_text_element</t>
-  </si>
-  <si>
-    <t>title_strategic_challenge</t>
-  </si>
-  <si>
-    <t>title_key_outputs</t>
-  </si>
-  <si>
-    <t>Key outputs</t>
-  </si>
-  <si>
-    <t>title_dmo</t>
-  </si>
-  <si>
-    <t>Options</t>
-  </si>
-  <si>
-    <t>title_scenarios</t>
-  </si>
-  <si>
-    <t>Scenarios</t>
-  </si>
-  <si>
-    <t>text_strategic_challenge</t>
-  </si>
-  <si>
-    <t>text_key_outputs</t>
-  </si>
-  <si>
-    <t>text_dmo</t>
-  </si>
-  <si>
-    <t>text_scenarios</t>
-  </si>
-  <si>
-    <t>case_text_element</t>
-  </si>
-  <si>
-    <t>strategic_challenge</t>
-  </si>
-  <si>
-    <t>Strategic challenge</t>
-  </si>
-  <si>
-    <t>title_comparison_dmo</t>
-  </si>
-  <si>
-    <t>Strategic priorities</t>
-  </si>
-  <si>
-    <t>title_comparison_scenario</t>
-  </si>
-  <si>
-    <t>Risk appetite</t>
-  </si>
-  <si>
-    <t>title_fixed_inputs</t>
-  </si>
-  <si>
-    <t>Fixed inputs</t>
-  </si>
-  <si>
-    <t>title_dependency_graph</t>
-  </si>
-  <si>
-    <t>Dependency graph</t>
-  </si>
-  <si>
-    <t>title_weighted_graph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resulting appreciations of different DMOs for scenario: </t>
-  </si>
-  <si>
-    <t>The strategic challenge that requires a decision</t>
-  </si>
-  <si>
-    <t>The indicators used to evaluate the impact of your decision</t>
-  </si>
-  <si>
-    <t>The options you have to influence your impact</t>
-  </si>
-  <si>
-    <t>The uncertainty you want to account for</t>
-  </si>
-  <si>
-    <t>text_comparison_dmo</t>
-  </si>
-  <si>
-    <t>Evaluate options by assessing strategic priorities</t>
-  </si>
-  <si>
-    <t>text_comparison_scenario</t>
-  </si>
-  <si>
-    <t>Evaluate options by assessing risk appetite</t>
-  </si>
-  <si>
-    <t>intro_key_outputs</t>
-  </si>
-  <si>
-    <t>The outputs upon which the decision makers will base their decision. Key outputs are often referred to as KPIs. Key outputs are grouped into themes.</t>
-  </si>
-  <si>
-    <t>intro_decision_makers_options</t>
-  </si>
-  <si>
-    <t>Decision makers options are formulated by assigning a single value to all internal variable inputs. These inputs can be formulated and determined by the decision makers.</t>
-  </si>
-  <si>
-    <t>intro_scenarios</t>
-  </si>
-  <si>
-    <t>Each external variable input can be thought of as a single aspect of external uncertainty affecting the outcome of the decision in scope. A scenario is defined by assigning a single value to all external variable inputs.</t>
-  </si>
-  <si>
-    <t>intro_fixed_inputs</t>
-  </si>
-  <si>
-    <t>The inputs which only takes one value for all scenarios.</t>
-  </si>
-  <si>
-    <t>intro_dependency_graph</t>
-  </si>
-  <si>
-    <t>intro_weighted_graph</t>
-  </si>
-  <si>
-    <t>header_theme</t>
-  </si>
-  <si>
-    <t>Theme</t>
-  </si>
-  <si>
-    <t>header_key_outputs</t>
-  </si>
-  <si>
-    <t>Key output</t>
-  </si>
-  <si>
-    <t>graph_title_dmo</t>
-  </si>
-  <si>
-    <t>Appreciations per option for scenario</t>
-  </si>
-  <si>
-    <t>graph_y_label_dmo</t>
-  </si>
-  <si>
-    <t>Appreciation</t>
-  </si>
-  <si>
-    <t>graph_text_dmo</t>
-  </si>
-  <si>
-    <t>The chart below shows the weighted appreciations per option, where key outputs are grouped into themes. The used theme weights are displayed in the pie chart on the right, showing the relative weights of all key outputs belonging to that theme. Use the dropdown menu to navigate through the various scenarios.</t>
-  </si>
-  <si>
-    <t>table_text_dmo</t>
-  </si>
-  <si>
-    <t>The table below shows the key output values per option, based on the selected scenario. The option with the highest weighted appreciation is highlighted.</t>
-  </si>
-  <si>
-    <t>graph_text_scenarios</t>
-  </si>
-  <si>
-    <t>The chart below shows the weighted appreciations per option, grouped into scenarios. The used scenario weights are displayed in the pie chart on the right.</t>
-  </si>
-  <si>
-    <t>graph_title_scenarios</t>
-  </si>
-  <si>
-    <t>Appreciations per scenario</t>
-  </si>
-  <si>
-    <t>graph_y_label_scenarios</t>
-  </si>
-  <si>
-    <t>The International Organisation for Migration (2016) counted 1,011,712 migrants and refugees that crossed the southern border of the European Union in 2015, which some have dubbed a ‘refugee crisis’. A distinction can be made between refugees and economic migrants. Economic migrants are, contrary to refugees, not forced to leave their country because of war or another humanitarian crisis, but move from their own country to a new country in order to find work or have a better standard of living. Europe currently has to cope with both. A (temporary) residence permit that grants asylum is generally only awarded to refugees. This permit is a ticket for integration in society, for work and education. The strategic challenge we face is determining how to accommodate refugees effectively.</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>EN</t>
-  </si>
-  <si>
-    <t>TECU_me</t>
-  </si>
-  <si>
-    <t>TECU_acc</t>
-  </si>
-  <si>
-    <t>TECU_pos</t>
-  </si>
-  <si>
-    <t>TECU_sp</t>
-  </si>
-  <si>
-    <t>TECU_1</t>
-  </si>
-  <si>
-    <t>TECU_2</t>
-  </si>
-  <si>
-    <t>TECU_3</t>
-  </si>
-  <si>
-    <t>TECU_4</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>LAUS_me</t>
-  </si>
-  <si>
-    <t>LAUS_acc</t>
-  </si>
-  <si>
-    <t>LAUS_pos</t>
-  </si>
-  <si>
-    <t>LAUS_sp</t>
-  </si>
-  <si>
-    <t>LAUS_1</t>
-  </si>
-  <si>
-    <t>LAUS_2</t>
-  </si>
-  <si>
-    <t>LAUS_3</t>
-  </si>
-  <si>
-    <t>LAUS_4</t>
-  </si>
-  <si>
-    <t>LAUI_me</t>
-  </si>
-  <si>
-    <t>LAUI_acc</t>
-  </si>
-  <si>
-    <t>LAUI_pos</t>
-  </si>
-  <si>
-    <t>LAUI_sp</t>
-  </si>
-  <si>
-    <t>LAUI_1</t>
-  </si>
-  <si>
-    <t>LAUI_2</t>
-  </si>
-  <si>
-    <t>LAUI_3</t>
-  </si>
-  <si>
-    <t>LAUI_4</t>
-  </si>
-  <si>
-    <t>URUE_me</t>
-  </si>
-  <si>
-    <t>URUE_acc</t>
-  </si>
-  <si>
-    <t>URUE_pos</t>
-  </si>
-  <si>
-    <t>URUE_sp</t>
-  </si>
-  <si>
-    <t>URUE_1</t>
-  </si>
-  <si>
-    <t>URUE_2</t>
-  </si>
-  <si>
-    <t>URUE_3</t>
-  </si>
-  <si>
-    <t>URUE_4</t>
-  </si>
-  <si>
-    <t>SCUS_me</t>
-  </si>
-  <si>
-    <t>SCUS_acc</t>
-  </si>
-  <si>
-    <t>SCUS_pos</t>
-  </si>
-  <si>
-    <t>SCUS_sp</t>
-  </si>
-  <si>
-    <t>SCUS_1</t>
-  </si>
-  <si>
-    <t>SCUS_2</t>
-  </si>
-  <si>
-    <t>SCUS_3</t>
-  </si>
-  <si>
-    <t>SCUS_4</t>
-  </si>
-  <si>
-    <t>SCUT_me</t>
-  </si>
-  <si>
-    <t>SCUT_acc</t>
-  </si>
-  <si>
-    <t>SCUT_pos</t>
-  </si>
-  <si>
-    <t>SCUT_sp</t>
-  </si>
-  <si>
-    <t>SCUT_1</t>
-  </si>
-  <si>
-    <t>SCUT_2</t>
-  </si>
-  <si>
-    <t>SCUT_3</t>
-  </si>
-  <si>
-    <t>SCUT_4</t>
-  </si>
-  <si>
-    <t>HUSA_me</t>
-  </si>
-  <si>
-    <t>HUSA_acc</t>
-  </si>
-  <si>
-    <t>HUSA_pos</t>
-  </si>
-  <si>
-    <t>HUSA_sp</t>
-  </si>
-  <si>
-    <t>HUSA_1</t>
-  </si>
-  <si>
-    <t>HUSA_2</t>
-  </si>
-  <si>
-    <t>HUSA_3</t>
-  </si>
-  <si>
-    <t>HUSA_4</t>
-  </si>
-  <si>
-    <t>SPUAT_me</t>
-  </si>
-  <si>
-    <t>SPUAT_acc</t>
-  </si>
-  <si>
-    <t>SPUAT_pos</t>
-  </si>
-  <si>
-    <t>SPUAT_sp</t>
-  </si>
-  <si>
-    <t>SPUAT_1</t>
-  </si>
-  <si>
-    <t>SPUAT_2</t>
-  </si>
-  <si>
-    <t>SPUAT_3</t>
-  </si>
-  <si>
-    <t>SPUAT_4</t>
   </si>
 </sst>
 </file>
@@ -1077,8 +1077,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{DA9729B0-9B76-C84C-86B6-0F66A13A4DF8}"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1105,7 +1105,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1422,10 +1422,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>232</v>
+        <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>233</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1448,15 +1448,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1504,7 +1504,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1527,15 +1527,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1566,9 +1566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CE72EE-56C9-CF45-9BB4-E3A3014AFA69}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1579,7 +1577,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1587,238 +1585,238 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>172</v>
+        <v>5</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>185</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>173</v>
+        <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>174</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>175</v>
+        <v>9</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>176</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>188</v>
+        <v>15</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>189</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>190</v>
+        <v>17</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>191</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>193</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>194</v>
+        <v>21</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>195</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>179</v>
+        <v>23</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>197</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>198</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>199</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>200</v>
+        <v>31</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>201</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>202</v>
+        <v>33</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>203</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>204</v>
+        <v>35</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>205</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>206</v>
+        <v>37</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>207</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>208</v>
+        <v>39</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>209</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>211</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="B22" s="7"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>215</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>216</v>
+        <v>47</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>217</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>218</v>
+        <v>49</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>219</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>220</v>
+        <v>51</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>221</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>222</v>
+        <v>53</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>223</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>224</v>
+        <v>55</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>225</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>226</v>
+        <v>57</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>227</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>228</v>
+        <v>59</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>229</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>230</v>
+        <v>61</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>221</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +1841,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>183</v>
+        <v>62</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1851,10 +1849,10 @@
     </row>
     <row r="2" spans="1:2" ht="204" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>184</v>
+        <v>63</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>231</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1870,7 +1868,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1881,36 +1879,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1924,19 +1922,13 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1950,19 +1942,13 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1976,19 +1962,13 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2002,19 +1982,13 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2028,19 +2002,13 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2054,19 +2022,13 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2079,12 +2041,6 @@
       </c>
       <c r="F8">
         <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>50000000</v>
       </c>
     </row>
   </sheetData>
@@ -2111,10 +2067,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2122,10 +2078,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2133,10 +2089,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2144,10 +2100,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>3234502</v>
@@ -2155,10 +2111,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2166,10 +2122,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="C6">
         <v>3234502</v>
@@ -2177,10 +2133,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C7">
         <v>3234502</v>
@@ -2188,10 +2144,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2199,10 +2155,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <v>3234502</v>
@@ -2210,10 +2166,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2221,10 +2177,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2232,10 +2188,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="C12">
         <v>3881402.4</v>
@@ -2243,10 +2199,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="C13">
         <v>2587601.6</v>
@@ -2254,10 +2210,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2265,10 +2221,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2276,10 +2232,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2287,10 +2243,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="C17">
         <v>1293800.8</v>
@@ -2298,10 +2254,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="C18">
         <v>1293800.8</v>
@@ -2309,10 +2265,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="C19">
         <v>1293800.8</v>
@@ -2320,10 +2276,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="C20">
         <v>1293800.8</v>
@@ -2331,10 +2287,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="C21">
         <v>1293800.8</v>
@@ -2342,10 +2298,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2353,10 +2309,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="C23">
         <v>2587601.6</v>
@@ -2364,10 +2320,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="C24">
         <v>3881402.4</v>
@@ -2375,10 +2331,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2386,10 +2342,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2416,10 +2372,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2427,10 +2383,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="C2">
         <v>2587601.6</v>
@@ -2438,10 +2394,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C3">
         <v>2587601.6</v>
@@ -2449,10 +2405,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="C4">
         <v>5175203.3470000001</v>
@@ -2460,10 +2416,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="C5">
         <v>0.7</v>
@@ -2471,10 +2427,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C6">
         <v>0.7</v>
@@ -2482,10 +2438,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>0.7</v>
@@ -2493,10 +2449,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C8">
         <v>36972</v>
@@ -2504,10 +2460,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C9">
         <v>21384</v>
@@ -2515,10 +2471,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C10">
         <v>27084</v>
@@ -2526,10 +2482,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C11">
         <v>26796</v>
@@ -2537,10 +2493,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="C12">
         <v>43512</v>
@@ -2548,10 +2504,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="C13">
         <v>25332</v>
@@ -2559,10 +2515,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="C14">
         <v>34872</v>
@@ -2570,10 +2526,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="C15">
         <v>30492</v>
@@ -2581,10 +2537,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="C16">
         <v>50052</v>
@@ -2592,10 +2548,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="C17">
         <v>34332</v>
@@ -2603,10 +2559,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="C18">
         <v>40776</v>
@@ -2614,10 +2570,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="C19">
         <v>34080</v>
@@ -2643,7 +2599,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2651,7 +2607,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="B2">
         <v>0.81</v>
@@ -2659,7 +2615,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="B3">
         <v>0.81</v>
@@ -2667,7 +2623,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="B4">
         <v>0.37</v>
@@ -2675,7 +2631,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="B5">
         <v>0.01</v>
@@ -2683,7 +2639,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="B6" s="3">
         <v>0.26600000000000001</v>
@@ -2691,7 +2647,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="B7" s="3">
         <v>0.26600000000000001</v>
@@ -2699,7 +2655,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="B8" s="3">
         <v>0.26600000000000001</v>
@@ -2707,7 +2663,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="B9">
         <v>1.1200000000000001</v>
@@ -2715,7 +2671,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="B10">
         <v>0.15490000000000001</v>
@@ -2723,7 +2679,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="B11">
         <v>0.22900000000000001</v>
@@ -2731,7 +2687,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="B12">
         <v>2.1999999999999999E-2</v>
@@ -2739,7 +2695,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="B13" s="3">
         <v>7.3000000000000001E-3</v>
@@ -2747,7 +2703,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="B14" s="3">
         <v>7.3000000000000001E-3</v>
@@ -2755,7 +2711,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="B15">
         <v>0.26</v>
@@ -2763,7 +2719,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="B16">
         <v>0.26</v>
@@ -2771,7 +2727,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="B17">
         <v>0.28999999999999998</v>
@@ -2779,7 +2735,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="B18">
         <v>0.28999999999999998</v>
@@ -2787,7 +2743,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="B19">
         <v>0.28999999999999998</v>
@@ -2795,7 +2751,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="B20">
         <v>4.1000000000000003E-3</v>
@@ -2803,7 +2759,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="B21">
         <v>0.82</v>
@@ -2811,7 +2767,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="B22">
         <v>0.82</v>
@@ -2819,7 +2775,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="B23">
         <v>9.1200000000000003E-2</v>
@@ -2827,7 +2783,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="B24">
         <v>0.7</v>
@@ -2835,7 +2791,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="B25">
         <v>0.26700000000000002</v>
@@ -2843,7 +2799,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="B26">
         <v>0.158</v>
@@ -2851,7 +2807,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="B27">
         <v>0.26</v>
@@ -2859,7 +2815,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="B28">
         <v>0.36299999999999999</v>
@@ -2867,7 +2823,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="B29">
         <v>0.39100000000000001</v>
@@ -2875,7 +2831,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="B30">
         <v>0.20899999999999999</v>
@@ -2883,7 +2839,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="B31">
         <v>0.46</v>
@@ -2891,7 +2847,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="B32">
         <v>0.46</v>
@@ -2899,7 +2855,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="B33">
         <v>0.46</v>
@@ -2907,7 +2863,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
@@ -2915,7 +2871,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="B35">
         <v>-0.05</v>
@@ -2923,7 +2879,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="B36">
         <v>-0.05</v>
@@ -2931,7 +2887,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="B37">
         <v>20700</v>
@@ -2939,7 +2895,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="B38">
         <v>6.0999999999999999E-2</v>
@@ -2947,7 +2903,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="B39">
         <v>0.19700000000000001</v>
@@ -2955,7 +2911,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="B40">
         <v>0.74199999999999999</v>
@@ -2963,7 +2919,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="B41">
         <v>1532</v>
@@ -2971,7 +2927,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="B42">
         <v>24000</v>
@@ -2979,7 +2935,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="B43">
         <v>3105</v>
@@ -2987,7 +2943,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="B44">
         <v>3120</v>
@@ -2995,7 +2951,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="B45">
         <v>3120</v>
@@ -3003,7 +2959,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="B46">
         <v>14352</v>
@@ -3011,7 +2967,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>234</v>
+        <v>151</v>
       </c>
       <c r="B47">
         <v>0.47</v>
@@ -3019,7 +2975,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -3027,7 +2983,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="B49">
         <v>0.71</v>
@@ -3035,7 +2991,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>237</v>
+        <v>154</v>
       </c>
       <c r="B50">
         <v>13774010.720000001</v>
@@ -3043,7 +2999,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>243</v>
+        <v>155</v>
       </c>
       <c r="B51">
         <v>0.42</v>
@@ -3051,7 +3007,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -3059,7 +3015,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>245</v>
+        <v>157</v>
       </c>
       <c r="B53">
         <v>0.7</v>
@@ -3067,7 +3023,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="B54">
         <v>1630189.054</v>
@@ -3075,7 +3031,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="B55">
         <v>0.65</v>
@@ -3083,7 +3039,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -3091,7 +3047,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="B57">
         <v>0.7</v>
@@ -3099,7 +3055,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="B58">
         <v>7946938.7560000001</v>
@@ -3107,7 +3063,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>259</v>
+        <v>163</v>
       </c>
       <c r="B59">
         <v>0.68</v>
@@ -3115,7 +3071,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>260</v>
+        <v>164</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -3123,7 +3079,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>261</v>
+        <v>165</v>
       </c>
       <c r="B61">
         <v>0.6</v>
@@ -3131,7 +3087,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>262</v>
+        <v>166</v>
       </c>
       <c r="B62">
         <v>8150945.2719999999</v>
@@ -3139,7 +3095,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>267</v>
+        <v>167</v>
       </c>
       <c r="B63">
         <v>0.12</v>
@@ -3147,7 +3103,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -3155,7 +3111,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="B65">
         <v>0.7</v>
@@ -3163,7 +3119,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="B66">
         <v>1630189.054</v>
@@ -3171,7 +3127,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>275</v>
+        <v>171</v>
       </c>
       <c r="B67">
         <v>1.4E-2</v>
@@ -3179,7 +3135,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>276</v>
+        <v>172</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -3187,7 +3143,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>277</v>
+        <v>173</v>
       </c>
       <c r="B69">
         <v>0.6</v>
@@ -3195,7 +3151,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>278</v>
+        <v>174</v>
       </c>
       <c r="B70">
         <v>15216753.91</v>
@@ -3203,7 +3159,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="B71">
         <v>0.22</v>
@@ -3211,7 +3167,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>284</v>
+        <v>176</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -3219,7 +3175,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="B73">
         <v>0.7</v>
@@ -3227,7 +3183,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="B74">
         <v>1630189.054</v>
@@ -3235,7 +3191,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>291</v>
+        <v>179</v>
       </c>
       <c r="B75">
         <v>0.53700000000000003</v>
@@ -3243,7 +3199,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>292</v>
+        <v>180</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -3251,7 +3207,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>293</v>
+        <v>181</v>
       </c>
       <c r="B77">
         <v>0.6</v>
@@ -3259,7 +3215,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>294</v>
+        <v>182</v>
       </c>
       <c r="B78">
         <v>15216753.91</v>
@@ -3295,1822 +3251,1822 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>185</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>237</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>151</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>197</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>203</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>204</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>203</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>204</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>204</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="C21" t="s">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="C22" t="s">
-        <v>245</v>
+        <v>157</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="C23" t="s">
-        <v>243</v>
+        <v>155</v>
       </c>
       <c r="D23" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="D24" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="B25" t="s">
-        <v>255</v>
+        <v>212</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="C26" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
       <c r="D26" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="B27" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="C27" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="D27" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="B28" t="s">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="C28" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="D28" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
       <c r="D29" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="D31" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>262</v>
+        <v>166</v>
       </c>
       <c r="D32" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="B33" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="B34" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="C34" t="s">
-        <v>260</v>
+        <v>164</v>
       </c>
       <c r="D34" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="C35" t="s">
-        <v>261</v>
+        <v>165</v>
       </c>
       <c r="D35" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="B36" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="C36" t="s">
-        <v>259</v>
+        <v>163</v>
       </c>
       <c r="D36" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="C37" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>170</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>227</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="D39" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>229</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>227</v>
       </c>
       <c r="D40" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>229</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>228</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>225</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="D42" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>231</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="D43" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="C45" t="s">
-        <v>103</v>
+        <v>231</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
       <c r="D46" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>234</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D47" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>235</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D48" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>236</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D49" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D50" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>234</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>235</v>
       </c>
       <c r="D51" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>236</v>
       </c>
       <c r="C52" t="s">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="D52" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="D53" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="C54" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="D54" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>241</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="C55" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>242</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D56" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>242</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="C57" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="D57" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="C58" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="D58" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>243</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="D59" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>147</v>
+        <v>244</v>
       </c>
       <c r="B60" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="D60" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
+        <v>241</v>
       </c>
       <c r="C61" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="D61" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>229</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="D63" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="D64" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>229</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="D65" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>115</v>
+        <v>247</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="C66" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
       <c r="D66" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>248</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>247</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>249</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="C68" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="D68" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>117</v>
+        <v>250</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>246</v>
       </c>
       <c r="C69" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="D69" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>251</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="C70" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="D70" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>119</v>
+        <v>252</v>
       </c>
       <c r="B71" t="s">
-        <v>111</v>
+        <v>241</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="D71" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>122</v>
+        <v>253</v>
       </c>
       <c r="B72" t="s">
-        <v>116</v>
+        <v>249</v>
       </c>
       <c r="C72" t="s">
-        <v>117</v>
+        <v>250</v>
       </c>
       <c r="D72" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>122</v>
+        <v>253</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>251</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>252</v>
       </c>
       <c r="D73" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>120</v>
+        <v>248</v>
       </c>
       <c r="C74" t="s">
-        <v>121</v>
+        <v>242</v>
       </c>
       <c r="D74" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>122</v>
+        <v>253</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="D76" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>255</v>
       </c>
       <c r="B77" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="C77" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="D77" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B78" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C78" t="s">
-        <v>270</v>
+        <v>170</v>
       </c>
       <c r="D78" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C80" t="s">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="D80" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C81" t="s">
-        <v>269</v>
+        <v>169</v>
       </c>
       <c r="D81" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>123</v>
+        <v>260</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C82" t="s">
-        <v>267</v>
+        <v>167</v>
       </c>
       <c r="D82" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="B83" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>278</v>
+        <v>174</v>
       </c>
       <c r="D83" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C85" t="s">
-        <v>276</v>
+        <v>172</v>
       </c>
       <c r="D85" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C86" t="s">
-        <v>277</v>
+        <v>173</v>
       </c>
       <c r="D86" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="C87" t="s">
-        <v>275</v>
+        <v>171</v>
       </c>
       <c r="D87" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="B88" t="s">
-        <v>97</v>
+        <v>217</v>
       </c>
       <c r="C88" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="D88" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="B89" t="s">
-        <v>123</v>
+        <v>260</v>
       </c>
       <c r="C89" t="s">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="D89" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="B90" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="B91" t="s">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="C91" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="D91" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="B92" t="s">
-        <v>127</v>
+        <v>243</v>
       </c>
       <c r="C92" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="D92" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="B93" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="C93" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="D93" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>269</v>
       </c>
       <c r="B94" t="s">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="C94" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="D94" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>145</v>
+        <v>270</v>
       </c>
       <c r="B95" t="s">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="C95" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="D95" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>152</v>
+        <v>271</v>
       </c>
       <c r="B96" t="s">
-        <v>129</v>
+        <v>268</v>
       </c>
       <c r="C96" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="D96" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>272</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="C97" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="D97" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>273</v>
       </c>
       <c r="B98" t="s">
-        <v>130</v>
+        <v>269</v>
       </c>
       <c r="C98" t="s">
-        <v>131</v>
+        <v>272</v>
       </c>
       <c r="D98" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B99" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C99" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="D99" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="B100" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="B101" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="C101" t="s">
-        <v>284</v>
+        <v>176</v>
       </c>
       <c r="D101" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B102" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="C102" t="s">
-        <v>285</v>
+        <v>177</v>
       </c>
       <c r="D102" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>133</v>
+        <v>278</v>
       </c>
       <c r="B103" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="C103" t="s">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="D103" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B104" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C104" t="s">
-        <v>294</v>
+        <v>182</v>
       </c>
       <c r="D104" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="B105" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="B106" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="C106" t="s">
-        <v>292</v>
+        <v>180</v>
       </c>
       <c r="D106" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="B107" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="C107" t="s">
-        <v>293</v>
+        <v>181</v>
       </c>
       <c r="D107" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>136</v>
+        <v>283</v>
       </c>
       <c r="B108" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C108" t="s">
-        <v>291</v>
+        <v>179</v>
       </c>
       <c r="D108" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>134</v>
+        <v>284</v>
       </c>
       <c r="B109" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="C109" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="D109" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>143</v>
+        <v>285</v>
       </c>
       <c r="B110" t="s">
-        <v>127</v>
+        <v>243</v>
       </c>
       <c r="C110" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="D110" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>151</v>
+        <v>286</v>
       </c>
       <c r="B111" t="s">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="C111" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="D111" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>144</v>
+        <v>287</v>
       </c>
       <c r="B112" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C112" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="D112" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>139</v>
+        <v>288</v>
       </c>
       <c r="B113" t="s">
-        <v>133</v>
+        <v>278</v>
       </c>
       <c r="C113" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="D113" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
       <c r="B114" t="s">
-        <v>134</v>
+        <v>284</v>
       </c>
       <c r="C114" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="D114" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>141</v>
+        <v>290</v>
       </c>
       <c r="B115" t="s">
-        <v>135</v>
+        <v>273</v>
       </c>
       <c r="C115" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="D115" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>142</v>
+        <v>291</v>
       </c>
       <c r="B116" t="s">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="C116" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="D116" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>292</v>
       </c>
       <c r="B117" t="s">
-        <v>136</v>
+        <v>283</v>
       </c>
       <c r="C117" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="D117" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="B118" t="s">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c r="C118" t="s">
-        <v>138</v>
+        <v>292</v>
       </c>
       <c r="D118" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="B119" t="s">
-        <v>139</v>
+        <v>288</v>
       </c>
       <c r="C119" t="s">
-        <v>140</v>
+        <v>289</v>
       </c>
       <c r="D119" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="B120" t="s">
-        <v>141</v>
+        <v>290</v>
       </c>
       <c r="C120" t="s">
-        <v>142</v>
+        <v>291</v>
       </c>
       <c r="D120" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>148</v>
+        <v>293</v>
       </c>
       <c r="B121" t="s">
-        <v>143</v>
+        <v>285</v>
       </c>
       <c r="C121" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="D121" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>149</v>
+        <v>294</v>
       </c>
       <c r="B122" t="s">
-        <v>144</v>
+        <v>287</v>
       </c>
       <c r="C122" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="D122" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>150</v>
+        <v>295</v>
       </c>
       <c r="B123" t="s">
-        <v>145</v>
+        <v>270</v>
       </c>
       <c r="C123" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="D123" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B124" t="s">
-        <v>146</v>
+        <v>205</v>
       </c>
       <c r="C124" t="s">
-        <v>147</v>
+        <v>244</v>
       </c>
       <c r="D124" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B125" t="s">
-        <v>148</v>
+        <v>293</v>
       </c>
       <c r="C125" t="s">
-        <v>149</v>
+        <v>294</v>
       </c>
       <c r="D125" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B126" t="s">
-        <v>150</v>
+        <v>295</v>
       </c>
       <c r="C126">
         <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>155</v>
+        <v>296</v>
       </c>
       <c r="B127" t="s">
-        <v>151</v>
+        <v>286</v>
       </c>
       <c r="C127" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="D127" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>156</v>
+        <v>297</v>
       </c>
       <c r="B128" t="s">
-        <v>152</v>
+        <v>271</v>
       </c>
       <c r="C128" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="D128" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="B129" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="C129" t="s">
-        <v>154</v>
+        <v>255</v>
       </c>
       <c r="D129" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="B130" t="s">
-        <v>155</v>
+        <v>296</v>
       </c>
       <c r="C130" t="s">
-        <v>156</v>
+        <v>297</v>
       </c>
       <c r="D130" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5131,15 +5087,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5147,7 +5103,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5156,4 +5112,225 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002B33C2011BE8EA41894A239402F0658E" ma:contentTypeVersion="6" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="dd48fc1076c78fe47a1eab0d6650eaa1">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4a426ee3-cced-49bc-8dd9-1f2d1c1ae46e" xmlns:ns3="4ee39a63-032e-49ab-b9ee-e49f6cc93b1b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="380a3a77129e2f0f909f16d470fb2e91" ns2:_="" ns3:_="">
+    <xsd:import namespace="4a426ee3-cced-49bc-8dd9-1f2d1c1ae46e"/>
+    <xsd:import namespace="4ee39a63-032e-49ab-b9ee-e49f6cc93b1b"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4a426ee3-cced-49bc-8dd9-1f2d1c1ae46e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="13" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ee39a63-032e-49ab-b9ee-e49f6cc93b1b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Gedeeld met" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Gedeeld met details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhoudstype"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{258FDA72-8B9A-4CC9-876D-174783B983F0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="4a426ee3-cced-49bc-8dd9-1f2d1c1ae46e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4ee39a63-032e-49ab-b9ee-e49f6cc93b1b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F53A44A5-5C19-439E-92D9-248DFB850987}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDB7DAE3-A34B-4530-A91C-E18EDAC6D38F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/vlinder/data/Refugee/xlsx/Refugee.xlsx
+++ b/src/vlinder/data/Refugee/xlsx/Refugee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/Tooling/vlinder/trbs/src/vlinder/data/Refugee/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0A7D9D-83E6-C446-A030-CB48B0018DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB166531-5897-6F4F-B210-BC8C38A7EA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5520" yWindow="760" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
@@ -1870,7 +1870,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1924,12 +1924,6 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1950,12 +1944,6 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1976,12 +1964,6 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2002,12 +1984,6 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2028,12 +2004,6 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2054,12 +2024,6 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2079,12 +2043,6 @@
       </c>
       <c r="F8">
         <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>50000000</v>
       </c>
     </row>
   </sheetData>

--- a/src/vlinder/data/Refugee/xlsx/Refugee.xlsx
+++ b/src/vlinder/data/Refugee/xlsx/Refugee.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/Tooling/vlinder/trbs/src/vlinder/data/Refugee/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mverdaasdo001/Documents/Aangepast_report/trbs/src/vlinder/data/Refugee/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB166531-5897-6F4F-B210-BC8C38A7EA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327F8EEF-D7B7-6C4E-BDD4-47E2EDBE3C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="760" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
+    <workbookView xWindow="5520" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="312">
   <si>
     <t>configuration</t>
   </si>
@@ -947,6 +947,45 @@
   </si>
   <si>
     <t>SPUAT_4</t>
+  </si>
+  <si>
+    <t>Optimize_DMO_name</t>
+  </si>
+  <si>
+    <t>Optimized_DMO</t>
+  </si>
+  <si>
+    <t>report_title_page</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>report_strategic_challenge</t>
+  </si>
+  <si>
+    <t>report_key_outputs_theme</t>
+  </si>
+  <si>
+    <t>report_decision_makers_options</t>
+  </si>
+  <si>
+    <t>report_scenarios</t>
+  </si>
+  <si>
+    <t>report_fixed_inputs</t>
+  </si>
+  <si>
+    <t>report_dependencies</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>report_weighted_appreciations</t>
+  </si>
+  <si>
+    <t>report_add_optimize</t>
   </si>
 </sst>
 </file>
@@ -1077,8 +1116,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{DA9729B0-9B76-C84C-86B6-0F66A13A4DF8}"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1105,7 +1144,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1401,15 +1440,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323C0127-B98F-8F4A-8B9E-DB2076867E31}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1426,6 +1466,86 @@
       </c>
       <c r="B2" s="10" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -1869,7 +1989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F27D205-AE79-E542-BA48-2D4707481E26}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -2055,7 +2175,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/vlinder/data/Refugee/xlsx/Refugee.xlsx
+++ b/src/vlinder/data/Refugee/xlsx/Refugee.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mverdaasdo001/Documents/Aangepast_report/trbs/src/vlinder/data/Refugee/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/Tooling/vlinder/trbs-dev/src/vlinder/data/Refugee/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327F8EEF-D7B7-6C4E-BDD4-47E2EDBE3C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9417B70-CC78-1646-B602-CB6F25C3DE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5520" yWindow="760" windowWidth="29040" windowHeight="15720" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="311">
   <si>
     <t>configuration</t>
   </si>
@@ -983,9 +983,6 @@
   </si>
   <si>
     <t>report_weighted_appreciations</t>
-  </si>
-  <si>
-    <t>report_add_optimize</t>
   </si>
 </sst>
 </file>
@@ -1116,8 +1113,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{DA9729B0-9B76-C84C-86B6-0F66A13A4DF8}"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1144,7 +1141,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1440,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323C0127-B98F-8F4A-8B9E-DB2076867E31}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1538,14 +1535,6 @@
       </c>
       <c r="B11" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>311</v>
-      </c>
-      <c r="B12" t="s">
-        <v>309</v>
       </c>
     </row>
   </sheetData>
